--- a/Project/DataTable/Excel/角色实体配置表.xlsx
+++ b/Project/DataTable/Excel/角色实体配置表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952">
   <si>
     <t>Id</t>
   </si>
@@ -124,6 +124,9 @@
     <t>AiWaringDist</t>
   </si>
   <si>
+    <t>FindEnemyInterval</t>
+  </si>
+  <si>
     <t>AIScript</t>
   </si>
   <si>
@@ -251,6 +254,9 @@
   </si>
   <si>
     <t>Ai警示距离</t>
+  </si>
+  <si>
+    <t>Ai寻敌间隔</t>
   </si>
   <si>
     <t>AI脚本</t>
@@ -2872,9 +2878,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -3310,10 +3316,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AL127"/>
+  <dimension ref="A1:AM127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AJ30" sqref="AJ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25"/>
@@ -3347,12 +3353,13 @@
     <col min="34" max="34" width="11.625" customWidth="1"/>
     <col min="35" max="35" width="15.875" customWidth="1"/>
     <col min="36" max="36" width="15.375" customWidth="1"/>
-    <col min="37" max="37" width="16" customWidth="1"/>
-    <col min="38" max="38" width="19.375" customWidth="1"/>
-    <col min="39" max="16382" width="15.625" customWidth="1"/>
+    <col min="37" max="37" width="21.625" customWidth="1"/>
+    <col min="38" max="38" width="16" customWidth="1"/>
+    <col min="39" max="39" width="19.375" customWidth="1"/>
+    <col min="40" max="16383" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3467,373 +3474,385 @@
       <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:39">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:39">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:39">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:39">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E5">
         <v>901</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3866,13 +3885,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R5">
         <v>100</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3908,13 +3927,13 @@
         <v>0</v>
       </c>
       <c r="AE5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AF5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH5">
         <v>2</v>
@@ -3925,31 +3944,34 @@
       <c r="AJ5">
         <v>10</v>
       </c>
-      <c r="AK5" t="s">
-        <v>90</v>
+      <c r="AK5">
+        <v>0.5</v>
       </c>
       <c r="AL5" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:39">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>902</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -3982,13 +4004,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R6">
         <v>100</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4024,13 +4046,13 @@
         <v>0</v>
       </c>
       <c r="AE6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AF6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AG6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AH6">
         <v>2</v>
@@ -4041,31 +4063,34 @@
       <c r="AJ6">
         <v>10</v>
       </c>
-      <c r="AK6" t="s">
-        <v>98</v>
+      <c r="AK6">
+        <v>0.5</v>
       </c>
       <c r="AL6" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:39">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>903</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4098,13 +4123,13 @@
         <v>0</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R7">
         <v>100</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -4140,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="AE7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AG7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AH7">
         <v>2</v>
@@ -4157,31 +4182,34 @@
       <c r="AJ7">
         <v>10</v>
       </c>
-      <c r="AK7" t="s">
-        <v>106</v>
+      <c r="AK7">
+        <v>0.5</v>
       </c>
       <c r="AL7" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:39">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E8">
         <v>904</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -4214,13 +4242,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R8">
         <v>100</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -4256,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="AE8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AF8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AG8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AH8">
         <v>2</v>
@@ -4273,31 +4301,34 @@
       <c r="AJ8">
         <v>10</v>
       </c>
-      <c r="AK8" t="s">
-        <v>114</v>
+      <c r="AK8">
+        <v>0.5</v>
       </c>
       <c r="AL8" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:39">
       <c r="A9">
         <v>40001</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E9">
         <v>905</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4330,13 +4361,13 @@
         <v>0</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R9">
         <v>100</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -4372,13 +4403,13 @@
         <v>0</v>
       </c>
       <c r="AE9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AG9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AH9">
         <v>2</v>
@@ -4389,31 +4420,34 @@
       <c r="AJ9">
         <v>10</v>
       </c>
-      <c r="AK9" t="s">
-        <v>122</v>
+      <c r="AK9">
+        <v>0.5</v>
       </c>
       <c r="AL9" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:39">
       <c r="A10">
         <v>40002</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E10">
         <v>906</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4446,13 +4480,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R10">
         <v>100</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -4488,13 +4522,13 @@
         <v>0</v>
       </c>
       <c r="AE10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AF10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AH10">
         <v>2</v>
@@ -4505,31 +4539,34 @@
       <c r="AJ10">
         <v>10</v>
       </c>
-      <c r="AK10" t="s">
-        <v>129</v>
+      <c r="AK10">
+        <v>0.5</v>
       </c>
       <c r="AL10" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:39">
       <c r="A11">
         <v>40003</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E11">
         <v>907</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -4562,13 +4599,13 @@
         <v>0</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R11">
         <v>100</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -4604,13 +4641,13 @@
         <v>0</v>
       </c>
       <c r="AE11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AF11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AH11">
         <v>2</v>
@@ -4621,31 +4658,34 @@
       <c r="AJ11">
         <v>10</v>
       </c>
-      <c r="AK11" t="s">
-        <v>136</v>
+      <c r="AK11">
+        <v>0.5</v>
       </c>
       <c r="AL11" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:39">
       <c r="A12">
         <v>40004</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E12">
         <v>908</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -4678,13 +4718,13 @@
         <v>0</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R12">
         <v>100</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -4720,13 +4760,13 @@
         <v>0</v>
       </c>
       <c r="AE12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AH12">
         <v>2</v>
@@ -4737,31 +4777,34 @@
       <c r="AJ12">
         <v>10</v>
       </c>
-      <c r="AK12" t="s">
-        <v>143</v>
+      <c r="AK12">
+        <v>0.5</v>
       </c>
       <c r="AL12" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:39">
       <c r="A13">
         <v>40005</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E13">
         <v>909</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -4794,13 +4837,13 @@
         <v>0</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R13">
         <v>100</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -4836,13 +4879,13 @@
         <v>0</v>
       </c>
       <c r="AE13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AG13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AH13">
         <v>2</v>
@@ -4853,31 +4896,34 @@
       <c r="AJ13">
         <v>10</v>
       </c>
-      <c r="AK13" t="s">
-        <v>150</v>
+      <c r="AK13">
+        <v>0.5</v>
       </c>
       <c r="AL13" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:39">
       <c r="A14">
         <v>40006</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E14">
         <v>910</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -4910,13 +4956,13 @@
         <v>0</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R14">
         <v>100</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -4952,13 +4998,13 @@
         <v>0</v>
       </c>
       <c r="AE14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AH14">
         <v>2</v>
@@ -4969,31 +5015,34 @@
       <c r="AJ14">
         <v>10</v>
       </c>
-      <c r="AK14" t="s">
-        <v>157</v>
+      <c r="AK14">
+        <v>0.5</v>
       </c>
       <c r="AL14" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:39">
       <c r="A15">
         <v>40007</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E15">
         <v>911</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -5026,13 +5075,13 @@
         <v>0</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R15">
         <v>100</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -5068,13 +5117,13 @@
         <v>0</v>
       </c>
       <c r="AE15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AG15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AH15">
         <v>2</v>
@@ -5085,31 +5134,34 @@
       <c r="AJ15">
         <v>10</v>
       </c>
-      <c r="AK15" t="s">
-        <v>164</v>
+      <c r="AK15">
+        <v>0.5</v>
       </c>
       <c r="AL15" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:39">
       <c r="A16">
         <v>40008</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E16">
         <v>912</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -5142,13 +5194,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R16">
         <v>100</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -5184,13 +5236,13 @@
         <v>0</v>
       </c>
       <c r="AE16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AF16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AH16">
         <v>2</v>
@@ -5201,31 +5253,34 @@
       <c r="AJ16">
         <v>10</v>
       </c>
-      <c r="AK16" t="s">
-        <v>171</v>
+      <c r="AK16">
+        <v>0.5</v>
       </c>
       <c r="AL16" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:39">
       <c r="A17">
         <v>40009</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E17">
         <v>913</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -5258,13 +5313,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R17">
         <v>100</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -5300,13 +5355,13 @@
         <v>0</v>
       </c>
       <c r="AE17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AF17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AH17">
         <v>2</v>
@@ -5317,31 +5372,34 @@
       <c r="AJ17">
         <v>10</v>
       </c>
-      <c r="AK17" t="s">
-        <v>178</v>
+      <c r="AK17">
+        <v>0.5</v>
       </c>
       <c r="AL17" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:39">
       <c r="A18">
         <v>50001</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E18">
         <v>914</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -5374,13 +5432,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R18">
         <v>100</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T18">
         <v>25</v>
@@ -5416,13 +5474,13 @@
         <v>2</v>
       </c>
       <c r="AE18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AF18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AG18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AH18">
         <v>2</v>
@@ -5433,31 +5491,34 @@
       <c r="AJ18">
         <v>10</v>
       </c>
-      <c r="AK18" t="s">
-        <v>185</v>
+      <c r="AK18">
+        <v>0.5</v>
       </c>
       <c r="AL18" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:39">
       <c r="A19">
         <v>50002</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E19">
         <v>915</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -5490,13 +5551,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R19">
         <v>100</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T19">
         <v>27</v>
@@ -5532,13 +5593,13 @@
         <v>2</v>
       </c>
       <c r="AE19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AH19">
         <v>2</v>
@@ -5549,31 +5610,34 @@
       <c r="AJ19">
         <v>10</v>
       </c>
-      <c r="AK19" t="s">
-        <v>192</v>
+      <c r="AK19">
+        <v>0.5</v>
       </c>
       <c r="AL19" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:39">
       <c r="A20">
         <v>50003</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E20">
         <v>916</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -5606,13 +5670,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R20">
         <v>100</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T20">
         <v>29</v>
@@ -5648,13 +5712,13 @@
         <v>2</v>
       </c>
       <c r="AE20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AH20">
         <v>2</v>
@@ -5665,31 +5729,34 @@
       <c r="AJ20">
         <v>10</v>
       </c>
-      <c r="AK20" t="s">
-        <v>199</v>
+      <c r="AK20">
+        <v>0.5</v>
       </c>
       <c r="AL20" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:39">
       <c r="A21">
         <v>50004</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E21">
         <v>917</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -5722,13 +5789,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R21">
         <v>100</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T21">
         <v>31</v>
@@ -5764,13 +5831,13 @@
         <v>2</v>
       </c>
       <c r="AE21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AH21">
         <v>2</v>
@@ -5781,31 +5848,34 @@
       <c r="AJ21">
         <v>10</v>
       </c>
-      <c r="AK21" t="s">
-        <v>206</v>
+      <c r="AK21">
+        <v>0.5</v>
       </c>
       <c r="AL21" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:39">
       <c r="A22">
         <v>50005</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E22">
         <v>918</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -5838,13 +5908,13 @@
         <v>0</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R22">
         <v>100</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T22">
         <v>33</v>
@@ -5880,13 +5950,13 @@
         <v>2</v>
       </c>
       <c r="AE22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AH22">
         <v>2</v>
@@ -5897,31 +5967,34 @@
       <c r="AJ22">
         <v>10</v>
       </c>
-      <c r="AK22" t="s">
-        <v>213</v>
+      <c r="AK22">
+        <v>0.5</v>
       </c>
       <c r="AL22" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:39">
       <c r="A23">
         <v>50006</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E23">
         <v>919</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -5954,13 +6027,13 @@
         <v>0</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R23">
         <v>100</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T23">
         <v>35</v>
@@ -5996,13 +6069,13 @@
         <v>2</v>
       </c>
       <c r="AE23" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AF23" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AH23">
         <v>2</v>
@@ -6013,31 +6086,34 @@
       <c r="AJ23">
         <v>10</v>
       </c>
-      <c r="AK23" t="s">
-        <v>220</v>
+      <c r="AK23">
+        <v>0.5</v>
       </c>
       <c r="AL23" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:39">
       <c r="A24">
         <v>50007</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E24">
         <v>920</v>
       </c>
       <c r="F24" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -6070,13 +6146,13 @@
         <v>0</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R24">
         <v>100</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T24">
         <v>37</v>
@@ -6112,13 +6188,13 @@
         <v>2</v>
       </c>
       <c r="AE24" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AF24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH24">
         <v>2</v>
@@ -6129,31 +6205,34 @@
       <c r="AJ24">
         <v>10</v>
       </c>
-      <c r="AK24" t="s">
-        <v>227</v>
+      <c r="AK24">
+        <v>0.5</v>
       </c>
       <c r="AL24" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:39">
       <c r="A25">
         <v>50008</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E25">
         <v>921</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -6186,13 +6265,13 @@
         <v>0</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R25">
         <v>100</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T25">
         <v>39</v>
@@ -6228,13 +6307,13 @@
         <v>2</v>
       </c>
       <c r="AE25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AF25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AH25">
         <v>2</v>
@@ -6245,31 +6324,34 @@
       <c r="AJ25">
         <v>10</v>
       </c>
-      <c r="AK25" t="s">
-        <v>234</v>
+      <c r="AK25">
+        <v>0.5</v>
       </c>
       <c r="AL25" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:39">
       <c r="A26">
         <v>50009</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E26">
         <v>922</v>
       </c>
       <c r="F26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -6302,13 +6384,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R26">
         <v>100</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T26">
         <v>41</v>
@@ -6344,13 +6426,13 @@
         <v>2</v>
       </c>
       <c r="AE26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AH26">
         <v>2</v>
@@ -6361,31 +6443,34 @@
       <c r="AJ26">
         <v>10</v>
       </c>
-      <c r="AK26" t="s">
-        <v>241</v>
+      <c r="AK26">
+        <v>0.5</v>
       </c>
       <c r="AL26" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:39">
       <c r="A27">
         <v>50010</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E27">
         <v>923</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -6418,13 +6503,13 @@
         <v>0</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R27">
         <v>100</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T27">
         <v>43</v>
@@ -6460,13 +6545,13 @@
         <v>2</v>
       </c>
       <c r="AE27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AF27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AH27">
         <v>2</v>
@@ -6477,31 +6562,34 @@
       <c r="AJ27">
         <v>10</v>
       </c>
-      <c r="AK27" t="s">
-        <v>248</v>
+      <c r="AK27">
+        <v>0.5</v>
       </c>
       <c r="AL27" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:39">
       <c r="A28">
         <v>50011</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E28">
         <v>901</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -6534,13 +6622,13 @@
         <v>0</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R28">
         <v>100</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T28">
         <v>45</v>
@@ -6576,13 +6664,13 @@
         <v>2</v>
       </c>
       <c r="AE28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AH28">
         <v>2</v>
@@ -6593,31 +6681,34 @@
       <c r="AJ28">
         <v>10</v>
       </c>
-      <c r="AK28" t="s">
-        <v>255</v>
+      <c r="AK28">
+        <v>0.5</v>
       </c>
       <c r="AL28" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>258</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:39">
       <c r="A29">
         <v>50012</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E29">
         <v>902</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -6650,13 +6741,13 @@
         <v>0</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R29">
         <v>100</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T29">
         <v>47</v>
@@ -6692,13 +6783,13 @@
         <v>2</v>
       </c>
       <c r="AE29" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AF29" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AH29">
         <v>2</v>
@@ -6709,31 +6800,34 @@
       <c r="AJ29">
         <v>10</v>
       </c>
-      <c r="AK29" t="s">
-        <v>262</v>
+      <c r="AK29">
+        <v>0.5</v>
       </c>
       <c r="AL29" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>265</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:39">
       <c r="A30">
         <v>50013</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E30">
         <v>903</v>
       </c>
       <c r="F30" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -6766,13 +6860,13 @@
         <v>0</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R30">
         <v>100</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T30">
         <v>49</v>
@@ -6808,13 +6902,13 @@
         <v>2</v>
       </c>
       <c r="AE30" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AF30" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AH30">
         <v>2</v>
@@ -6825,31 +6919,34 @@
       <c r="AJ30">
         <v>10</v>
       </c>
-      <c r="AK30" t="s">
-        <v>269</v>
+      <c r="AK30">
+        <v>0.5</v>
       </c>
       <c r="AL30" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:39">
       <c r="A31">
         <v>50014</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E31">
         <v>904</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -6882,13 +6979,13 @@
         <v>0</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R31">
         <v>100</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T31">
         <v>51</v>
@@ -6924,13 +7021,13 @@
         <v>2</v>
       </c>
       <c r="AE31" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AF31" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AH31">
         <v>2</v>
@@ -6941,31 +7038,34 @@
       <c r="AJ31">
         <v>10</v>
       </c>
-      <c r="AK31" t="s">
-        <v>276</v>
+      <c r="AK31">
+        <v>0.5</v>
       </c>
       <c r="AL31" t="s">
-        <v>277</v>
+        <v>278</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:39">
       <c r="A32">
         <v>50015</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E32">
         <v>905</v>
       </c>
       <c r="F32" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -6998,13 +7098,13 @@
         <v>0</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R32">
         <v>100</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T32">
         <v>53</v>
@@ -7040,13 +7140,13 @@
         <v>2</v>
       </c>
       <c r="AE32" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF32" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AH32">
         <v>2</v>
@@ -7057,31 +7157,34 @@
       <c r="AJ32">
         <v>10</v>
       </c>
-      <c r="AK32" t="s">
-        <v>283</v>
+      <c r="AK32">
+        <v>0.5</v>
       </c>
       <c r="AL32" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>286</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:39">
       <c r="A33">
         <v>50016</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E33">
         <v>906</v>
       </c>
       <c r="F33" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -7114,13 +7217,13 @@
         <v>65004</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R33">
         <v>100</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T33">
         <v>55</v>
@@ -7156,13 +7259,13 @@
         <v>2</v>
       </c>
       <c r="AE33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AF33" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AH33">
         <v>2</v>
@@ -7173,31 +7276,34 @@
       <c r="AJ33">
         <v>10</v>
       </c>
-      <c r="AK33" t="s">
-        <v>290</v>
+      <c r="AK33">
+        <v>0.5</v>
       </c>
       <c r="AL33" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:39">
       <c r="A34">
         <v>50017</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E34">
         <v>907</v>
       </c>
       <c r="F34" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -7230,13 +7336,13 @@
         <v>0</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R34">
         <v>100</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T34">
         <v>57</v>
@@ -7272,13 +7378,13 @@
         <v>2</v>
       </c>
       <c r="AE34" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AF34" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AH34">
         <v>2</v>
@@ -7289,31 +7395,34 @@
       <c r="AJ34">
         <v>10</v>
       </c>
-      <c r="AK34" t="s">
-        <v>297</v>
+      <c r="AK34">
+        <v>0.5</v>
       </c>
       <c r="AL34" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:39">
       <c r="A35">
         <v>50018</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E35">
         <v>908</v>
       </c>
       <c r="F35" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -7346,13 +7455,13 @@
         <v>0</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R35">
         <v>100</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T35">
         <v>59</v>
@@ -7388,13 +7497,13 @@
         <v>2</v>
       </c>
       <c r="AE35" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF35" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AH35">
         <v>2</v>
@@ -7405,31 +7514,34 @@
       <c r="AJ35">
         <v>10</v>
       </c>
-      <c r="AK35" t="s">
-        <v>304</v>
+      <c r="AK35">
+        <v>0.5</v>
       </c>
       <c r="AL35" t="s">
-        <v>305</v>
+        <v>306</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>307</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:39">
       <c r="A36">
         <v>50019</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E36">
         <v>909</v>
       </c>
       <c r="F36" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -7462,13 +7574,13 @@
         <v>0</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R36">
         <v>100</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T36">
         <v>61</v>
@@ -7504,13 +7616,13 @@
         <v>2</v>
       </c>
       <c r="AE36" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF36" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AG36" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AH36">
         <v>2</v>
@@ -7521,31 +7633,34 @@
       <c r="AJ36">
         <v>10</v>
       </c>
-      <c r="AK36" t="s">
-        <v>311</v>
+      <c r="AK36">
+        <v>0.5</v>
       </c>
       <c r="AL36" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:39">
       <c r="A37">
         <v>50020</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E37">
         <v>910</v>
       </c>
       <c r="F37" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -7578,13 +7693,13 @@
         <v>0</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R37">
         <v>100</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T37">
         <v>63</v>
@@ -7620,13 +7735,13 @@
         <v>2</v>
       </c>
       <c r="AE37" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AF37" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AG37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AH37">
         <v>2</v>
@@ -7637,31 +7752,34 @@
       <c r="AJ37">
         <v>10</v>
       </c>
-      <c r="AK37" t="s">
-        <v>318</v>
+      <c r="AK37">
+        <v>0.5</v>
       </c>
       <c r="AL37" t="s">
-        <v>319</v>
+        <v>320</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:39">
       <c r="A38">
         <v>50021</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E38">
         <v>911</v>
       </c>
       <c r="F38" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -7694,13 +7812,13 @@
         <v>0</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R38">
         <v>100</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T38">
         <v>65</v>
@@ -7736,13 +7854,13 @@
         <v>2</v>
       </c>
       <c r="AE38" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AF38" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AG38" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AH38">
         <v>2</v>
@@ -7753,31 +7871,34 @@
       <c r="AJ38">
         <v>10</v>
       </c>
-      <c r="AK38" t="s">
-        <v>325</v>
+      <c r="AK38">
+        <v>0.5</v>
       </c>
       <c r="AL38" t="s">
-        <v>326</v>
+        <v>327</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:39">
       <c r="A39">
         <v>50022</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E39">
         <v>912</v>
       </c>
       <c r="F39" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -7810,13 +7931,13 @@
         <v>0</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R39">
         <v>100</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T39">
         <v>67</v>
@@ -7852,13 +7973,13 @@
         <v>2</v>
       </c>
       <c r="AE39" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AF39" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AG39" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AH39">
         <v>2</v>
@@ -7869,31 +7990,34 @@
       <c r="AJ39">
         <v>10</v>
       </c>
-      <c r="AK39" t="s">
-        <v>332</v>
+      <c r="AK39">
+        <v>0.5</v>
       </c>
       <c r="AL39" t="s">
-        <v>333</v>
+        <v>334</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>335</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:39">
       <c r="A40">
         <v>50023</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E40">
         <v>913</v>
       </c>
       <c r="F40" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -7926,13 +8050,13 @@
         <v>0</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R40">
         <v>100</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T40">
         <v>69</v>
@@ -7968,13 +8092,13 @@
         <v>2</v>
       </c>
       <c r="AE40" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF40" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AH40">
         <v>2</v>
@@ -7985,31 +8109,34 @@
       <c r="AJ40">
         <v>10</v>
       </c>
-      <c r="AK40" t="s">
-        <v>339</v>
+      <c r="AK40">
+        <v>0.5</v>
       </c>
       <c r="AL40" t="s">
-        <v>340</v>
+        <v>341</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>342</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:39">
       <c r="A41">
         <v>50024</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E41">
         <v>914</v>
       </c>
       <c r="F41" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -8042,13 +8169,13 @@
         <v>0</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R41">
         <v>100</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T41">
         <v>71</v>
@@ -8084,13 +8211,13 @@
         <v>2</v>
       </c>
       <c r="AE41" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AF41" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG41" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AH41">
         <v>2</v>
@@ -8101,31 +8228,34 @@
       <c r="AJ41">
         <v>10</v>
       </c>
-      <c r="AK41" t="s">
-        <v>346</v>
+      <c r="AK41">
+        <v>0.5</v>
       </c>
       <c r="AL41" t="s">
-        <v>347</v>
+        <v>348</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>349</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:39">
       <c r="A42">
         <v>50025</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E42">
         <v>915</v>
       </c>
       <c r="F42" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -8158,13 +8288,13 @@
         <v>0</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R42">
         <v>100</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T42">
         <v>73</v>
@@ -8200,13 +8330,13 @@
         <v>2</v>
       </c>
       <c r="AE42" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AF42" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AG42" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AH42">
         <v>2</v>
@@ -8217,31 +8347,34 @@
       <c r="AJ42">
         <v>10</v>
       </c>
-      <c r="AK42" t="s">
-        <v>353</v>
+      <c r="AK42">
+        <v>0.5</v>
       </c>
       <c r="AL42" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>356</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:39">
       <c r="A43">
         <v>50026</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E43">
         <v>916</v>
       </c>
       <c r="F43" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -8274,13 +8407,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R43">
         <v>100</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T43">
         <v>75</v>
@@ -8316,13 +8449,13 @@
         <v>2</v>
       </c>
       <c r="AE43" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AF43" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG43" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AH43">
         <v>2</v>
@@ -8333,31 +8466,34 @@
       <c r="AJ43">
         <v>10</v>
       </c>
-      <c r="AK43" t="s">
-        <v>360</v>
+      <c r="AK43">
+        <v>0.5</v>
       </c>
       <c r="AL43" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>363</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:39">
       <c r="A44">
         <v>50027</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E44">
         <v>917</v>
       </c>
       <c r="F44" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -8390,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R44">
         <v>100</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T44">
         <v>77</v>
@@ -8432,13 +8568,13 @@
         <v>2</v>
       </c>
       <c r="AE44" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AF44" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AG44" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AH44">
         <v>2</v>
@@ -8449,31 +8585,34 @@
       <c r="AJ44">
         <v>10</v>
       </c>
-      <c r="AK44" t="s">
-        <v>367</v>
+      <c r="AK44">
+        <v>0.5</v>
       </c>
       <c r="AL44" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>370</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:39">
       <c r="A45">
         <v>50028</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E45">
         <v>918</v>
       </c>
       <c r="F45" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -8506,13 +8645,13 @@
         <v>0</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R45">
         <v>100</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T45">
         <v>79</v>
@@ -8548,13 +8687,13 @@
         <v>2</v>
       </c>
       <c r="AE45" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF45" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AG45" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AH45">
         <v>2</v>
@@ -8565,31 +8704,34 @@
       <c r="AJ45">
         <v>10</v>
       </c>
-      <c r="AK45" t="s">
-        <v>374</v>
+      <c r="AK45">
+        <v>0.5</v>
       </c>
       <c r="AL45" t="s">
-        <v>375</v>
+        <v>376</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:39">
       <c r="A46">
         <v>50029</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E46">
         <v>919</v>
       </c>
       <c r="F46" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -8622,13 +8764,13 @@
         <v>0</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R46">
         <v>100</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T46">
         <v>81</v>
@@ -8664,13 +8806,13 @@
         <v>2</v>
       </c>
       <c r="AE46" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AF46" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AG46" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AH46">
         <v>2</v>
@@ -8681,31 +8823,34 @@
       <c r="AJ46">
         <v>10</v>
       </c>
-      <c r="AK46" t="s">
-        <v>381</v>
+      <c r="AK46">
+        <v>0.5</v>
       </c>
       <c r="AL46" t="s">
-        <v>382</v>
+        <v>383</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>384</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:39">
       <c r="A47">
         <v>50030</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E47">
         <v>920</v>
       </c>
       <c r="F47" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -8738,13 +8883,13 @@
         <v>0</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R47">
         <v>100</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T47">
         <v>83</v>
@@ -8780,13 +8925,13 @@
         <v>2</v>
       </c>
       <c r="AE47" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AF47" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AG47" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AH47">
         <v>2</v>
@@ -8797,31 +8942,34 @@
       <c r="AJ47">
         <v>10</v>
       </c>
-      <c r="AK47" t="s">
-        <v>388</v>
+      <c r="AK47">
+        <v>0.5</v>
       </c>
       <c r="AL47" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>391</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:39">
       <c r="A48">
         <v>50031</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E48">
         <v>921</v>
       </c>
       <c r="F48" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -8854,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R48">
         <v>100</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T48">
         <v>85</v>
@@ -8896,13 +9044,13 @@
         <v>2</v>
       </c>
       <c r="AE48" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AF48" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AG48" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AH48">
         <v>2</v>
@@ -8913,31 +9061,34 @@
       <c r="AJ48">
         <v>10</v>
       </c>
-      <c r="AK48" t="s">
-        <v>395</v>
+      <c r="AK48">
+        <v>0.5</v>
       </c>
       <c r="AL48" t="s">
-        <v>396</v>
+        <v>397</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>398</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:39">
       <c r="A49">
         <v>50032</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E49">
         <v>922</v>
       </c>
       <c r="F49" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -8970,13 +9121,13 @@
         <v>0</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R49">
         <v>100</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T49">
         <v>87</v>
@@ -9012,13 +9163,13 @@
         <v>2</v>
       </c>
       <c r="AE49" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AF49" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AG49" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AH49">
         <v>2</v>
@@ -9029,31 +9180,34 @@
       <c r="AJ49">
         <v>10</v>
       </c>
-      <c r="AK49" t="s">
-        <v>402</v>
+      <c r="AK49">
+        <v>0.5</v>
       </c>
       <c r="AL49" t="s">
-        <v>403</v>
+        <v>404</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>405</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:39">
       <c r="A50">
         <v>50033</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E50">
         <v>923</v>
       </c>
       <c r="F50" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -9086,13 +9240,13 @@
         <v>0</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R50">
         <v>100</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T50">
         <v>89</v>
@@ -9128,13 +9282,13 @@
         <v>2</v>
       </c>
       <c r="AE50" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AF50" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AG50" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AH50">
         <v>2</v>
@@ -9145,31 +9299,34 @@
       <c r="AJ50">
         <v>10</v>
       </c>
-      <c r="AK50" t="s">
-        <v>409</v>
+      <c r="AK50">
+        <v>0.5</v>
       </c>
       <c r="AL50" t="s">
-        <v>410</v>
+        <v>411</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>412</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:39">
       <c r="A51">
         <v>50034</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E51">
         <v>901</v>
       </c>
       <c r="F51" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -9202,13 +9359,13 @@
         <v>0</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R51">
         <v>100</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T51">
         <v>91</v>
@@ -9244,13 +9401,13 @@
         <v>2</v>
       </c>
       <c r="AE51" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF51" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG51" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AH51">
         <v>2</v>
@@ -9261,31 +9418,34 @@
       <c r="AJ51">
         <v>10</v>
       </c>
-      <c r="AK51" t="s">
-        <v>416</v>
+      <c r="AK51">
+        <v>0.5</v>
       </c>
       <c r="AL51" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:39">
       <c r="A52">
         <v>50035</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E52">
         <v>902</v>
       </c>
       <c r="F52" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -9318,13 +9478,13 @@
         <v>0</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R52">
         <v>100</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T52">
         <v>93</v>
@@ -9360,13 +9520,13 @@
         <v>2</v>
       </c>
       <c r="AE52" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AF52" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AG52" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AH52">
         <v>2</v>
@@ -9377,31 +9537,34 @@
       <c r="AJ52">
         <v>10</v>
       </c>
-      <c r="AK52" t="s">
-        <v>423</v>
+      <c r="AK52">
+        <v>0.5</v>
       </c>
       <c r="AL52" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>426</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:39">
       <c r="A53">
         <v>50036</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E53">
         <v>903</v>
       </c>
       <c r="F53" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -9434,13 +9597,13 @@
         <v>0</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R53">
         <v>100</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T53">
         <v>95</v>
@@ -9476,13 +9639,13 @@
         <v>2</v>
       </c>
       <c r="AE53" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AF53" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG53" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AH53">
         <v>2</v>
@@ -9493,31 +9656,34 @@
       <c r="AJ53">
         <v>10</v>
       </c>
-      <c r="AK53" t="s">
-        <v>430</v>
+      <c r="AK53">
+        <v>0.5</v>
       </c>
       <c r="AL53" t="s">
-        <v>431</v>
+        <v>432</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:39">
       <c r="A54">
         <v>50037</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E54">
         <v>904</v>
       </c>
       <c r="F54" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -9550,13 +9716,13 @@
         <v>0</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R54">
         <v>100</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T54">
         <v>97</v>
@@ -9592,13 +9758,13 @@
         <v>2</v>
       </c>
       <c r="AE54" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AF54" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AG54" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AH54">
         <v>2</v>
@@ -9609,31 +9775,34 @@
       <c r="AJ54">
         <v>10</v>
       </c>
-      <c r="AK54" t="s">
-        <v>437</v>
+      <c r="AK54">
+        <v>0.5</v>
       </c>
       <c r="AL54" t="s">
-        <v>438</v>
+        <v>439</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>440</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:39">
       <c r="A55">
         <v>50038</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D55" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E55">
         <v>905</v>
       </c>
       <c r="F55" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -9666,13 +9835,13 @@
         <v>0</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R55">
         <v>100</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T55">
         <v>99</v>
@@ -9708,13 +9877,13 @@
         <v>2</v>
       </c>
       <c r="AE55" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AF55" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AG55" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AH55">
         <v>2</v>
@@ -9725,31 +9894,34 @@
       <c r="AJ55">
         <v>10</v>
       </c>
-      <c r="AK55" t="s">
-        <v>444</v>
+      <c r="AK55">
+        <v>0.5</v>
       </c>
       <c r="AL55" t="s">
-        <v>445</v>
+        <v>446</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>447</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:39">
       <c r="A56">
         <v>50039</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E56">
         <v>906</v>
       </c>
       <c r="F56" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -9782,13 +9954,13 @@
         <v>65003</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R56">
         <v>100</v>
       </c>
       <c r="S56" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T56">
         <v>101</v>
@@ -9824,13 +9996,13 @@
         <v>2</v>
       </c>
       <c r="AE56" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AF56" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AG56" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AH56">
         <v>2</v>
@@ -9841,31 +10013,34 @@
       <c r="AJ56">
         <v>10</v>
       </c>
-      <c r="AK56" t="s">
-        <v>451</v>
+      <c r="AK56">
+        <v>0.5</v>
       </c>
       <c r="AL56" t="s">
-        <v>452</v>
+        <v>453</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>454</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:39">
       <c r="A57">
         <v>50040</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E57">
         <v>907</v>
       </c>
       <c r="F57" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -9898,13 +10073,13 @@
         <v>0</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R57">
         <v>100</v>
       </c>
       <c r="S57" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T57">
         <v>103</v>
@@ -9940,13 +10115,13 @@
         <v>2</v>
       </c>
       <c r="AE57" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AF57" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AG57" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AH57">
         <v>2</v>
@@ -9957,31 +10132,34 @@
       <c r="AJ57">
         <v>10</v>
       </c>
-      <c r="AK57" t="s">
-        <v>458</v>
+      <c r="AK57">
+        <v>0.5</v>
       </c>
       <c r="AL57" t="s">
-        <v>459</v>
+        <v>460</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>461</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:39">
       <c r="A58">
         <v>50041</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E58">
         <v>908</v>
       </c>
       <c r="F58" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -10014,13 +10192,13 @@
         <v>0</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R58">
         <v>100</v>
       </c>
       <c r="S58" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T58">
         <v>105</v>
@@ -10056,13 +10234,13 @@
         <v>2</v>
       </c>
       <c r="AE58" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF58" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AG58" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AH58">
         <v>2</v>
@@ -10073,31 +10251,34 @@
       <c r="AJ58">
         <v>10</v>
       </c>
-      <c r="AK58" t="s">
-        <v>465</v>
+      <c r="AK58">
+        <v>0.5</v>
       </c>
       <c r="AL58" t="s">
-        <v>466</v>
+        <v>467</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>468</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:39">
       <c r="A59">
         <v>50042</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E59">
         <v>909</v>
       </c>
       <c r="F59" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -10130,13 +10311,13 @@
         <v>0</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R59">
         <v>100</v>
       </c>
       <c r="S59" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T59">
         <v>107</v>
@@ -10172,13 +10353,13 @@
         <v>2</v>
       </c>
       <c r="AE59" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AF59" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AG59" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AH59">
         <v>2</v>
@@ -10189,31 +10370,34 @@
       <c r="AJ59">
         <v>10</v>
       </c>
-      <c r="AK59" t="s">
-        <v>472</v>
+      <c r="AK59">
+        <v>0.5</v>
       </c>
       <c r="AL59" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>475</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:39">
       <c r="A60">
         <v>50043</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E60">
         <v>910</v>
       </c>
       <c r="F60" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -10246,13 +10430,13 @@
         <v>0</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R60">
         <v>100</v>
       </c>
       <c r="S60" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T60">
         <v>109</v>
@@ -10288,13 +10472,13 @@
         <v>2</v>
       </c>
       <c r="AE60" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AF60" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AG60" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AH60">
         <v>2</v>
@@ -10305,31 +10489,34 @@
       <c r="AJ60">
         <v>10</v>
       </c>
-      <c r="AK60" t="s">
-        <v>479</v>
+      <c r="AK60">
+        <v>0.5</v>
       </c>
       <c r="AL60" t="s">
-        <v>480</v>
+        <v>481</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>482</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:39">
       <c r="A61">
         <v>50044</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E61">
         <v>911</v>
       </c>
       <c r="F61" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -10362,13 +10549,13 @@
         <v>0</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R61">
         <v>100</v>
       </c>
       <c r="S61" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T61">
         <v>111</v>
@@ -10404,13 +10591,13 @@
         <v>2</v>
       </c>
       <c r="AE61" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AF61" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AG61" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AH61">
         <v>2</v>
@@ -10421,31 +10608,34 @@
       <c r="AJ61">
         <v>10</v>
       </c>
-      <c r="AK61" t="s">
-        <v>486</v>
+      <c r="AK61">
+        <v>0.5</v>
       </c>
       <c r="AL61" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>489</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:39">
       <c r="A62">
         <v>50045</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E62">
         <v>912</v>
       </c>
       <c r="F62" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -10478,13 +10668,13 @@
         <v>0</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R62">
         <v>100</v>
       </c>
       <c r="S62" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T62">
         <v>113</v>
@@ -10520,13 +10710,13 @@
         <v>2</v>
       </c>
       <c r="AE62" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AF62" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AG62" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AH62">
         <v>2</v>
@@ -10537,31 +10727,34 @@
       <c r="AJ62">
         <v>10</v>
       </c>
-      <c r="AK62" t="s">
-        <v>493</v>
+      <c r="AK62">
+        <v>0.5</v>
       </c>
       <c r="AL62" t="s">
-        <v>494</v>
+        <v>495</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>496</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:39">
       <c r="A63">
         <v>50046</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E63">
         <v>913</v>
       </c>
       <c r="F63" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -10594,13 +10787,13 @@
         <v>0</v>
       </c>
       <c r="Q63" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R63">
         <v>100</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T63">
         <v>115</v>
@@ -10636,13 +10829,13 @@
         <v>2</v>
       </c>
       <c r="AE63" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AF63" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AG63" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AH63">
         <v>2</v>
@@ -10653,31 +10846,34 @@
       <c r="AJ63">
         <v>10</v>
       </c>
-      <c r="AK63" t="s">
-        <v>500</v>
+      <c r="AK63">
+        <v>0.5</v>
       </c>
       <c r="AL63" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>503</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:39">
       <c r="A64">
         <v>50047</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E64">
         <v>914</v>
       </c>
       <c r="F64" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -10710,13 +10906,13 @@
         <v>0</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R64">
         <v>100</v>
       </c>
       <c r="S64" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T64">
         <v>117</v>
@@ -10752,13 +10948,13 @@
         <v>2</v>
       </c>
       <c r="AE64" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AF64" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AG64" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AH64">
         <v>2</v>
@@ -10769,31 +10965,34 @@
       <c r="AJ64">
         <v>10</v>
       </c>
-      <c r="AK64" t="s">
-        <v>507</v>
+      <c r="AK64">
+        <v>0.5</v>
       </c>
       <c r="AL64" t="s">
-        <v>508</v>
+        <v>509</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>510</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:39">
       <c r="A65">
         <v>50048</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E65">
         <v>915</v>
       </c>
       <c r="F65" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -10826,13 +11025,13 @@
         <v>0</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R65">
         <v>100</v>
       </c>
       <c r="S65" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T65">
         <v>119</v>
@@ -10868,13 +11067,13 @@
         <v>2</v>
       </c>
       <c r="AE65" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AF65" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AG65" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AH65">
         <v>2</v>
@@ -10885,31 +11084,34 @@
       <c r="AJ65">
         <v>10</v>
       </c>
-      <c r="AK65" t="s">
-        <v>514</v>
+      <c r="AK65">
+        <v>0.5</v>
       </c>
       <c r="AL65" t="s">
-        <v>515</v>
+        <v>516</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>517</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:39">
       <c r="A66">
         <v>50049</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E66">
         <v>916</v>
       </c>
       <c r="F66" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -10942,13 +11144,13 @@
         <v>0</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R66">
         <v>100</v>
       </c>
       <c r="S66" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T66">
         <v>121</v>
@@ -10984,13 +11186,13 @@
         <v>2</v>
       </c>
       <c r="AE66" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AF66" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AG66" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AH66">
         <v>2</v>
@@ -11001,31 +11203,34 @@
       <c r="AJ66">
         <v>10</v>
       </c>
-      <c r="AK66" t="s">
-        <v>521</v>
+      <c r="AK66">
+        <v>0.5</v>
       </c>
       <c r="AL66" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>524</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:39">
       <c r="A67">
         <v>50050</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E67">
         <v>917</v>
       </c>
       <c r="F67" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -11058,13 +11263,13 @@
         <v>0</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R67">
         <v>100</v>
       </c>
       <c r="S67" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T67">
         <v>123</v>
@@ -11100,13 +11305,13 @@
         <v>2</v>
       </c>
       <c r="AE67" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AF67" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AG67" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AH67">
         <v>2</v>
@@ -11117,31 +11322,34 @@
       <c r="AJ67">
         <v>10</v>
       </c>
-      <c r="AK67" t="s">
-        <v>528</v>
+      <c r="AK67">
+        <v>0.5</v>
       </c>
       <c r="AL67" t="s">
-        <v>529</v>
+        <v>530</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>531</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:39">
       <c r="A68">
         <v>50051</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E68">
         <v>918</v>
       </c>
       <c r="F68" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -11174,13 +11382,13 @@
         <v>0</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R68">
         <v>100</v>
       </c>
       <c r="S68" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T68">
         <v>125</v>
@@ -11216,13 +11424,13 @@
         <v>2</v>
       </c>
       <c r="AE68" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AF68" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AG68" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AH68">
         <v>2</v>
@@ -11233,31 +11441,34 @@
       <c r="AJ68">
         <v>10</v>
       </c>
-      <c r="AK68" t="s">
-        <v>535</v>
+      <c r="AK68">
+        <v>0.5</v>
       </c>
       <c r="AL68" t="s">
-        <v>536</v>
+        <v>537</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>538</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:39">
       <c r="A69">
         <v>50052</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E69">
         <v>919</v>
       </c>
       <c r="F69" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -11290,13 +11501,13 @@
         <v>0</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R69">
         <v>100</v>
       </c>
       <c r="S69" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T69">
         <v>127</v>
@@ -11332,13 +11543,13 @@
         <v>2</v>
       </c>
       <c r="AE69" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AF69" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AG69" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AH69">
         <v>2</v>
@@ -11349,31 +11560,34 @@
       <c r="AJ69">
         <v>10</v>
       </c>
-      <c r="AK69" t="s">
-        <v>542</v>
+      <c r="AK69">
+        <v>0.5</v>
       </c>
       <c r="AL69" t="s">
-        <v>543</v>
+        <v>544</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>545</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:39">
       <c r="A70">
         <v>50053</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D70" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E70">
         <v>920</v>
       </c>
       <c r="F70" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -11406,13 +11620,13 @@
         <v>0</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R70">
         <v>100</v>
       </c>
       <c r="S70" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T70">
         <v>129</v>
@@ -11448,13 +11662,13 @@
         <v>2</v>
       </c>
       <c r="AE70" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AF70" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AG70" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AH70">
         <v>2</v>
@@ -11465,31 +11679,34 @@
       <c r="AJ70">
         <v>10</v>
       </c>
-      <c r="AK70" t="s">
-        <v>549</v>
+      <c r="AK70">
+        <v>0.5</v>
       </c>
       <c r="AL70" t="s">
-        <v>550</v>
+        <v>551</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:39">
       <c r="A71">
         <v>50054</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D71" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E71">
         <v>921</v>
       </c>
       <c r="F71" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -11522,13 +11739,13 @@
         <v>0</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R71">
         <v>100</v>
       </c>
       <c r="S71" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T71">
         <v>131</v>
@@ -11564,13 +11781,13 @@
         <v>2</v>
       </c>
       <c r="AE71" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AF71" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AG71" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AH71">
         <v>2</v>
@@ -11581,31 +11798,34 @@
       <c r="AJ71">
         <v>10</v>
       </c>
-      <c r="AK71" t="s">
-        <v>556</v>
+      <c r="AK71">
+        <v>0.5</v>
       </c>
       <c r="AL71" t="s">
-        <v>557</v>
+        <v>558</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>559</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:39">
       <c r="A72">
         <v>50055</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D72" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E72">
         <v>922</v>
       </c>
       <c r="F72" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -11638,13 +11858,13 @@
         <v>0</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R72">
         <v>100</v>
       </c>
       <c r="S72" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T72">
         <v>133</v>
@@ -11680,13 +11900,13 @@
         <v>2</v>
       </c>
       <c r="AE72" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AF72" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AG72" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AH72">
         <v>2</v>
@@ -11697,31 +11917,34 @@
       <c r="AJ72">
         <v>10</v>
       </c>
-      <c r="AK72" t="s">
-        <v>563</v>
+      <c r="AK72">
+        <v>0.5</v>
       </c>
       <c r="AL72" t="s">
-        <v>564</v>
+        <v>565</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>566</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:39">
       <c r="A73">
         <v>50056</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D73" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E73">
         <v>923</v>
       </c>
       <c r="F73" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -11754,13 +11977,13 @@
         <v>0</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R73">
         <v>100</v>
       </c>
       <c r="S73" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T73">
         <v>135</v>
@@ -11796,13 +12019,13 @@
         <v>2</v>
       </c>
       <c r="AE73" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AF73" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AG73" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AH73">
         <v>2</v>
@@ -11813,31 +12036,34 @@
       <c r="AJ73">
         <v>10</v>
       </c>
-      <c r="AK73" t="s">
-        <v>570</v>
+      <c r="AK73">
+        <v>0.5</v>
       </c>
       <c r="AL73" t="s">
-        <v>571</v>
+        <v>572</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>573</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:39">
       <c r="A74">
         <v>50057</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D74" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E74">
         <v>901</v>
       </c>
       <c r="F74" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -11870,13 +12096,13 @@
         <v>0</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R74">
         <v>100</v>
       </c>
       <c r="S74" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T74">
         <v>137</v>
@@ -11912,13 +12138,13 @@
         <v>2</v>
       </c>
       <c r="AE74" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AF74" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AG74" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AH74">
         <v>2</v>
@@ -11929,31 +12155,34 @@
       <c r="AJ74">
         <v>10</v>
       </c>
-      <c r="AK74" t="s">
-        <v>577</v>
+      <c r="AK74">
+        <v>0.5</v>
       </c>
       <c r="AL74" t="s">
-        <v>578</v>
+        <v>579</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>580</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:39">
       <c r="A75">
         <v>50058</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D75" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E75">
         <v>902</v>
       </c>
       <c r="F75" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -11986,13 +12215,13 @@
         <v>0</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R75">
         <v>100</v>
       </c>
       <c r="S75" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T75">
         <v>139</v>
@@ -12028,13 +12257,13 @@
         <v>2</v>
       </c>
       <c r="AE75" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AF75" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AG75" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AH75">
         <v>2</v>
@@ -12045,31 +12274,34 @@
       <c r="AJ75">
         <v>10</v>
       </c>
-      <c r="AK75" t="s">
-        <v>584</v>
+      <c r="AK75">
+        <v>0.5</v>
       </c>
       <c r="AL75" t="s">
-        <v>585</v>
+        <v>586</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>587</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:39">
       <c r="A76">
         <v>50059</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D76" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E76">
         <v>903</v>
       </c>
       <c r="F76" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -12102,13 +12334,13 @@
         <v>0</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R76">
         <v>100</v>
       </c>
       <c r="S76" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T76">
         <v>141</v>
@@ -12144,13 +12376,13 @@
         <v>2</v>
       </c>
       <c r="AE76" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AF76" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AG76" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AH76">
         <v>2</v>
@@ -12161,31 +12393,34 @@
       <c r="AJ76">
         <v>10</v>
       </c>
-      <c r="AK76" t="s">
-        <v>591</v>
+      <c r="AK76">
+        <v>0.5</v>
       </c>
       <c r="AL76" t="s">
-        <v>592</v>
+        <v>593</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>594</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:39">
       <c r="A77">
         <v>50060</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E77">
         <v>904</v>
       </c>
       <c r="F77" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -12218,13 +12453,13 @@
         <v>0</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R77">
         <v>100</v>
       </c>
       <c r="S77" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T77">
         <v>143</v>
@@ -12260,13 +12495,13 @@
         <v>2</v>
       </c>
       <c r="AE77" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AF77" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG77" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AH77">
         <v>2</v>
@@ -12277,31 +12512,34 @@
       <c r="AJ77">
         <v>10</v>
       </c>
-      <c r="AK77" t="s">
-        <v>598</v>
+      <c r="AK77">
+        <v>0.5</v>
       </c>
       <c r="AL77" t="s">
-        <v>599</v>
+        <v>600</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>601</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:39">
       <c r="A78">
         <v>50061</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D78" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E78">
         <v>905</v>
       </c>
       <c r="F78" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -12334,13 +12572,13 @@
         <v>0</v>
       </c>
       <c r="Q78" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R78">
         <v>100</v>
       </c>
       <c r="S78" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T78">
         <v>145</v>
@@ -12376,13 +12614,13 @@
         <v>2</v>
       </c>
       <c r="AE78" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AF78" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AG78" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AH78">
         <v>2</v>
@@ -12393,31 +12631,34 @@
       <c r="AJ78">
         <v>10</v>
       </c>
-      <c r="AK78" t="s">
-        <v>605</v>
+      <c r="AK78">
+        <v>0.5</v>
       </c>
       <c r="AL78" t="s">
-        <v>606</v>
+        <v>607</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>608</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:39">
       <c r="A79">
         <v>50062</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D79" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E79">
         <v>906</v>
       </c>
       <c r="F79" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -12450,13 +12691,13 @@
         <v>0</v>
       </c>
       <c r="Q79" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R79">
         <v>100</v>
       </c>
       <c r="S79" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T79">
         <v>147</v>
@@ -12492,13 +12733,13 @@
         <v>2</v>
       </c>
       <c r="AE79" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AF79" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AG79" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AH79">
         <v>2</v>
@@ -12509,31 +12750,34 @@
       <c r="AJ79">
         <v>10</v>
       </c>
-      <c r="AK79" t="s">
-        <v>612</v>
+      <c r="AK79">
+        <v>0.5</v>
       </c>
       <c r="AL79" t="s">
-        <v>613</v>
+        <v>614</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>615</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:39">
       <c r="A80">
         <v>50063</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E80">
         <v>907</v>
       </c>
       <c r="F80" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -12566,13 +12810,13 @@
         <v>0</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R80">
         <v>100</v>
       </c>
       <c r="S80" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T80">
         <v>149</v>
@@ -12608,13 +12852,13 @@
         <v>2</v>
       </c>
       <c r="AE80" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AF80" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AG80" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AH80">
         <v>2</v>
@@ -12625,31 +12869,34 @@
       <c r="AJ80">
         <v>10</v>
       </c>
-      <c r="AK80" t="s">
-        <v>619</v>
+      <c r="AK80">
+        <v>0.5</v>
       </c>
       <c r="AL80" t="s">
-        <v>620</v>
+        <v>621</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>622</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:39">
       <c r="A81">
         <v>50064</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D81" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E81">
         <v>908</v>
       </c>
       <c r="F81" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -12682,13 +12929,13 @@
         <v>0</v>
       </c>
       <c r="Q81" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R81">
         <v>100</v>
       </c>
       <c r="S81" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T81">
         <v>151</v>
@@ -12724,13 +12971,13 @@
         <v>2</v>
       </c>
       <c r="AE81" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AF81" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AG81" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AH81">
         <v>2</v>
@@ -12741,31 +12988,34 @@
       <c r="AJ81">
         <v>10</v>
       </c>
-      <c r="AK81" t="s">
-        <v>626</v>
+      <c r="AK81">
+        <v>0.5</v>
       </c>
       <c r="AL81" t="s">
-        <v>627</v>
+        <v>628</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>629</v>
       </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:39">
       <c r="A82">
         <v>50065</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D82" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E82">
         <v>909</v>
       </c>
       <c r="F82" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -12798,13 +13048,13 @@
         <v>0</v>
       </c>
       <c r="Q82" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R82">
         <v>100</v>
       </c>
       <c r="S82" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T82">
         <v>153</v>
@@ -12840,13 +13090,13 @@
         <v>2</v>
       </c>
       <c r="AE82" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AF82" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AG82" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AH82">
         <v>2</v>
@@ -12857,31 +13107,34 @@
       <c r="AJ82">
         <v>10</v>
       </c>
-      <c r="AK82" t="s">
-        <v>633</v>
+      <c r="AK82">
+        <v>0.5</v>
       </c>
       <c r="AL82" t="s">
-        <v>634</v>
+        <v>635</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>636</v>
       </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:39">
       <c r="A83">
         <v>50066</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D83" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E83">
         <v>910</v>
       </c>
       <c r="F83" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -12914,13 +13167,13 @@
         <v>0</v>
       </c>
       <c r="Q83" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R83">
         <v>100</v>
       </c>
       <c r="S83" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T83">
         <v>155</v>
@@ -12956,13 +13209,13 @@
         <v>2</v>
       </c>
       <c r="AE83" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AF83" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="AG83" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AH83">
         <v>2</v>
@@ -12973,31 +13226,34 @@
       <c r="AJ83">
         <v>10</v>
       </c>
-      <c r="AK83" t="s">
-        <v>640</v>
+      <c r="AK83">
+        <v>0.5</v>
       </c>
       <c r="AL83" t="s">
-        <v>641</v>
+        <v>642</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>643</v>
       </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:39">
       <c r="A84">
         <v>50067</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E84">
         <v>911</v>
       </c>
       <c r="F84" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -13030,13 +13286,13 @@
         <v>0</v>
       </c>
       <c r="Q84" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R84">
         <v>100</v>
       </c>
       <c r="S84" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T84">
         <v>157</v>
@@ -13072,13 +13328,13 @@
         <v>2</v>
       </c>
       <c r="AE84" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AF84" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="AG84" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AH84">
         <v>2</v>
@@ -13089,31 +13345,34 @@
       <c r="AJ84">
         <v>10</v>
       </c>
-      <c r="AK84" t="s">
-        <v>647</v>
+      <c r="AK84">
+        <v>0.5</v>
       </c>
       <c r="AL84" t="s">
-        <v>648</v>
+        <v>649</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>650</v>
       </c>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:39">
       <c r="A85">
         <v>50068</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D85" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>912</v>
       </c>
       <c r="F85" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -13146,13 +13405,13 @@
         <v>0</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R85">
         <v>100</v>
       </c>
       <c r="S85" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T85">
         <v>159</v>
@@ -13188,13 +13447,13 @@
         <v>2</v>
       </c>
       <c r="AE85" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="AF85" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="AG85" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="AH85">
         <v>2</v>
@@ -13205,31 +13464,34 @@
       <c r="AJ85">
         <v>10</v>
       </c>
-      <c r="AK85" t="s">
-        <v>654</v>
+      <c r="AK85">
+        <v>0.5</v>
       </c>
       <c r="AL85" t="s">
-        <v>655</v>
+        <v>656</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>657</v>
       </c>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:39">
       <c r="A86">
         <v>50069</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D86" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E86">
         <v>913</v>
       </c>
       <c r="F86" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -13262,13 +13524,13 @@
         <v>0</v>
       </c>
       <c r="Q86" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R86">
         <v>100</v>
       </c>
       <c r="S86" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T86">
         <v>161</v>
@@ -13304,13 +13566,13 @@
         <v>2</v>
       </c>
       <c r="AE86" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AF86" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AG86" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AH86">
         <v>2</v>
@@ -13321,31 +13583,34 @@
       <c r="AJ86">
         <v>10</v>
       </c>
-      <c r="AK86" t="s">
-        <v>661</v>
+      <c r="AK86">
+        <v>0.5</v>
       </c>
       <c r="AL86" t="s">
-        <v>662</v>
+        <v>663</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>664</v>
       </c>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:39">
       <c r="A87">
         <v>50070</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D87" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E87">
         <v>914</v>
       </c>
       <c r="F87" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -13378,13 +13643,13 @@
         <v>0</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R87">
         <v>100</v>
       </c>
       <c r="S87" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T87">
         <v>163</v>
@@ -13420,13 +13685,13 @@
         <v>2</v>
       </c>
       <c r="AE87" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AF87" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AG87" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AH87">
         <v>2</v>
@@ -13437,31 +13702,34 @@
       <c r="AJ87">
         <v>10</v>
       </c>
-      <c r="AK87" t="s">
-        <v>668</v>
+      <c r="AK87">
+        <v>0.5</v>
       </c>
       <c r="AL87" t="s">
-        <v>669</v>
+        <v>670</v>
+      </c>
+      <c r="AM87" t="s">
+        <v>671</v>
       </c>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:39">
       <c r="A88">
         <v>60001</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D88" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E88">
         <v>915</v>
       </c>
       <c r="F88" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -13494,13 +13762,13 @@
         <v>0</v>
       </c>
       <c r="Q88" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R88">
         <v>100</v>
       </c>
       <c r="S88" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -13536,13 +13804,13 @@
         <v>0</v>
       </c>
       <c r="AE88" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AF88" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AG88" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AH88">
         <v>2</v>
@@ -13553,31 +13821,34 @@
       <c r="AJ88">
         <v>10</v>
       </c>
-      <c r="AK88" t="s">
-        <v>675</v>
+      <c r="AK88">
+        <v>0.5</v>
       </c>
       <c r="AL88" t="s">
-        <v>676</v>
+        <v>677</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>678</v>
       </c>
     </row>
-    <row r="89" spans="1:38">
+    <row r="89" spans="1:39">
       <c r="A89">
         <v>60002</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C89" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D89" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E89">
         <v>916</v>
       </c>
       <c r="F89" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -13610,13 +13881,13 @@
         <v>0</v>
       </c>
       <c r="Q89" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R89">
         <v>100</v>
       </c>
       <c r="S89" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T89">
         <v>0</v>
@@ -13652,13 +13923,13 @@
         <v>0</v>
       </c>
       <c r="AE89" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AF89" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AG89" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AH89">
         <v>2</v>
@@ -13669,31 +13940,34 @@
       <c r="AJ89">
         <v>10</v>
       </c>
-      <c r="AK89" t="s">
-        <v>682</v>
+      <c r="AK89">
+        <v>0.5</v>
       </c>
       <c r="AL89" t="s">
-        <v>683</v>
+        <v>684</v>
+      </c>
+      <c r="AM89" t="s">
+        <v>685</v>
       </c>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:39">
       <c r="A90">
         <v>60003</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C90" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D90" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E90">
         <v>917</v>
       </c>
       <c r="F90" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -13726,13 +14000,13 @@
         <v>0</v>
       </c>
       <c r="Q90" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R90">
         <v>100</v>
       </c>
       <c r="S90" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T90">
         <v>0</v>
@@ -13768,13 +14042,13 @@
         <v>0</v>
       </c>
       <c r="AE90" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="AF90" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AG90" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AH90">
         <v>2</v>
@@ -13785,31 +14059,34 @@
       <c r="AJ90">
         <v>10</v>
       </c>
-      <c r="AK90" t="s">
-        <v>689</v>
+      <c r="AK90">
+        <v>0.5</v>
       </c>
       <c r="AL90" t="s">
-        <v>690</v>
+        <v>691</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>692</v>
       </c>
     </row>
-    <row r="91" spans="1:38">
+    <row r="91" spans="1:39">
       <c r="A91">
         <v>60004</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C91" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D91" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E91">
         <v>918</v>
       </c>
       <c r="F91" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -13842,13 +14119,13 @@
         <v>0</v>
       </c>
       <c r="Q91" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R91">
         <v>100</v>
       </c>
       <c r="S91" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -13884,13 +14161,13 @@
         <v>0</v>
       </c>
       <c r="AE91" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="AF91" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="AG91" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="AH91">
         <v>2</v>
@@ -13901,31 +14178,34 @@
       <c r="AJ91">
         <v>10</v>
       </c>
-      <c r="AK91" t="s">
-        <v>696</v>
+      <c r="AK91">
+        <v>0.5</v>
       </c>
       <c r="AL91" t="s">
-        <v>697</v>
+        <v>698</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>699</v>
       </c>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:39">
       <c r="A92">
         <v>60005</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C92" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D92" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E92">
         <v>919</v>
       </c>
       <c r="F92" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -13958,13 +14238,13 @@
         <v>0</v>
       </c>
       <c r="Q92" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R92">
         <v>100</v>
       </c>
       <c r="S92" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T92">
         <v>0</v>
@@ -14000,13 +14280,13 @@
         <v>0</v>
       </c>
       <c r="AE92" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="AF92" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="AG92" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="AH92">
         <v>2</v>
@@ -14017,31 +14297,34 @@
       <c r="AJ92">
         <v>10</v>
       </c>
-      <c r="AK92" t="s">
-        <v>703</v>
+      <c r="AK92">
+        <v>0.5</v>
       </c>
       <c r="AL92" t="s">
-        <v>704</v>
+        <v>705</v>
+      </c>
+      <c r="AM92" t="s">
+        <v>706</v>
       </c>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:39">
       <c r="A93">
         <v>60006</v>
       </c>
       <c r="B93" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C93" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D93" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E93">
         <v>920</v>
       </c>
       <c r="F93" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -14074,13 +14357,13 @@
         <v>0</v>
       </c>
       <c r="Q93" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R93">
         <v>100</v>
       </c>
       <c r="S93" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -14116,13 +14399,13 @@
         <v>0</v>
       </c>
       <c r="AE93" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AF93" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG93" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AH93">
         <v>2</v>
@@ -14133,31 +14416,34 @@
       <c r="AJ93">
         <v>10</v>
       </c>
-      <c r="AK93" t="s">
-        <v>710</v>
+      <c r="AK93">
+        <v>0.5</v>
       </c>
       <c r="AL93" t="s">
-        <v>711</v>
+        <v>712</v>
+      </c>
+      <c r="AM93" t="s">
+        <v>713</v>
       </c>
     </row>
-    <row r="94" spans="1:38">
+    <row r="94" spans="1:39">
       <c r="A94">
         <v>80001</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C94" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D94" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E94">
         <v>921</v>
       </c>
       <c r="F94" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -14190,13 +14476,13 @@
         <v>0</v>
       </c>
       <c r="Q94" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R94">
         <v>1</v>
       </c>
       <c r="S94" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T94">
         <v>0</v>
@@ -14232,13 +14518,13 @@
         <v>0</v>
       </c>
       <c r="AE94" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AF94" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AG94" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AH94">
         <v>2</v>
@@ -14249,31 +14535,34 @@
       <c r="AJ94">
         <v>10</v>
       </c>
-      <c r="AK94" t="s">
-        <v>717</v>
+      <c r="AK94">
+        <v>0.5</v>
       </c>
       <c r="AL94" t="s">
-        <v>718</v>
+        <v>719</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>720</v>
       </c>
     </row>
-    <row r="95" spans="1:38">
+    <row r="95" spans="1:39">
       <c r="A95">
         <v>80002</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C95" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D95" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E95">
         <v>922</v>
       </c>
       <c r="F95" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -14306,13 +14595,13 @@
         <v>0</v>
       </c>
       <c r="Q95" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R95">
         <v>1</v>
       </c>
       <c r="S95" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -14348,13 +14637,13 @@
         <v>0</v>
       </c>
       <c r="AE95" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="AF95" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="AG95" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="AH95">
         <v>2</v>
@@ -14365,31 +14654,34 @@
       <c r="AJ95">
         <v>10</v>
       </c>
-      <c r="AK95" t="s">
-        <v>724</v>
+      <c r="AK95">
+        <v>0.5</v>
       </c>
       <c r="AL95" t="s">
-        <v>725</v>
+        <v>726</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>727</v>
       </c>
     </row>
-    <row r="96" spans="1:38">
+    <row r="96" spans="1:39">
       <c r="A96">
         <v>80003</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C96" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D96" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E96">
         <v>923</v>
       </c>
       <c r="F96" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -14422,13 +14714,13 @@
         <v>0</v>
       </c>
       <c r="Q96" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R96">
         <v>1</v>
       </c>
       <c r="S96" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T96">
         <v>0</v>
@@ -14464,13 +14756,13 @@
         <v>0</v>
       </c>
       <c r="AE96" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="AF96" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="AG96" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="AH96">
         <v>2</v>
@@ -14481,31 +14773,34 @@
       <c r="AJ96">
         <v>10</v>
       </c>
-      <c r="AK96" t="s">
-        <v>731</v>
+      <c r="AK96">
+        <v>0.5</v>
       </c>
       <c r="AL96" t="s">
-        <v>732</v>
+        <v>733</v>
+      </c>
+      <c r="AM96" t="s">
+        <v>734</v>
       </c>
     </row>
-    <row r="97" spans="1:38">
+    <row r="97" spans="1:39">
       <c r="A97">
         <v>80004</v>
       </c>
       <c r="B97" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C97" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D97" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E97">
         <v>901</v>
       </c>
       <c r="F97" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -14538,13 +14833,13 @@
         <v>0</v>
       </c>
       <c r="Q97" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R97">
         <v>1</v>
       </c>
       <c r="S97" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -14580,13 +14875,13 @@
         <v>0</v>
       </c>
       <c r="AE97" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="AF97" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="AG97" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="AH97">
         <v>2</v>
@@ -14597,31 +14892,34 @@
       <c r="AJ97">
         <v>10</v>
       </c>
-      <c r="AK97" t="s">
-        <v>738</v>
+      <c r="AK97">
+        <v>0.5</v>
       </c>
       <c r="AL97" t="s">
-        <v>739</v>
+        <v>740</v>
+      </c>
+      <c r="AM97" t="s">
+        <v>741</v>
       </c>
     </row>
-    <row r="98" spans="1:38">
+    <row r="98" spans="1:39">
       <c r="A98">
         <v>80005</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C98" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D98" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E98">
         <v>902</v>
       </c>
       <c r="F98" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -14654,13 +14952,13 @@
         <v>0</v>
       </c>
       <c r="Q98" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R98">
         <v>1</v>
       </c>
       <c r="S98" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -14696,13 +14994,13 @@
         <v>0</v>
       </c>
       <c r="AE98" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AF98" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="AG98" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="AH98">
         <v>2</v>
@@ -14713,31 +15011,34 @@
       <c r="AJ98">
         <v>10</v>
       </c>
-      <c r="AK98" t="s">
-        <v>745</v>
+      <c r="AK98">
+        <v>0.5</v>
       </c>
       <c r="AL98" t="s">
-        <v>746</v>
+        <v>747</v>
+      </c>
+      <c r="AM98" t="s">
+        <v>748</v>
       </c>
     </row>
-    <row r="99" spans="1:38">
+    <row r="99" spans="1:39">
       <c r="A99">
         <v>80006</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C99" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D99" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E99">
         <v>903</v>
       </c>
       <c r="F99" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -14770,13 +15071,13 @@
         <v>0</v>
       </c>
       <c r="Q99" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R99">
         <v>1</v>
       </c>
       <c r="S99" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T99">
         <v>0</v>
@@ -14812,13 +15113,13 @@
         <v>0</v>
       </c>
       <c r="AE99" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AF99" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="AG99" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="AH99">
         <v>2</v>
@@ -14829,31 +15130,34 @@
       <c r="AJ99">
         <v>10</v>
       </c>
-      <c r="AK99" t="s">
-        <v>752</v>
+      <c r="AK99">
+        <v>0.5</v>
       </c>
       <c r="AL99" t="s">
-        <v>753</v>
+        <v>754</v>
+      </c>
+      <c r="AM99" t="s">
+        <v>755</v>
       </c>
     </row>
-    <row r="100" spans="1:38">
+    <row r="100" spans="1:39">
       <c r="A100">
         <v>80007</v>
       </c>
       <c r="B100" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C100" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D100" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E100">
         <v>904</v>
       </c>
       <c r="F100" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -14886,13 +15190,13 @@
         <v>0</v>
       </c>
       <c r="Q100" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R100">
         <v>1</v>
       </c>
       <c r="S100" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T100">
         <v>0</v>
@@ -14928,13 +15232,13 @@
         <v>0</v>
       </c>
       <c r="AE100" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AF100" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="AG100" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="AH100">
         <v>2</v>
@@ -14945,31 +15249,34 @@
       <c r="AJ100">
         <v>10</v>
       </c>
-      <c r="AK100" t="s">
-        <v>759</v>
+      <c r="AK100">
+        <v>0.5</v>
       </c>
       <c r="AL100" t="s">
-        <v>760</v>
+        <v>761</v>
+      </c>
+      <c r="AM100" t="s">
+        <v>762</v>
       </c>
     </row>
-    <row r="101" spans="1:38">
+    <row r="101" spans="1:39">
       <c r="A101">
         <v>80008</v>
       </c>
       <c r="B101" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C101" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E101">
         <v>905</v>
       </c>
       <c r="F101" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -15002,13 +15309,13 @@
         <v>0</v>
       </c>
       <c r="Q101" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R101">
         <v>1</v>
       </c>
       <c r="S101" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T101">
         <v>0</v>
@@ -15044,13 +15351,13 @@
         <v>0</v>
       </c>
       <c r="AE101" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AF101" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AG101" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AH101">
         <v>2</v>
@@ -15061,31 +15368,34 @@
       <c r="AJ101">
         <v>10</v>
       </c>
-      <c r="AK101" t="s">
-        <v>766</v>
+      <c r="AK101">
+        <v>0.5</v>
       </c>
       <c r="AL101" t="s">
-        <v>767</v>
+        <v>768</v>
+      </c>
+      <c r="AM101" t="s">
+        <v>769</v>
       </c>
     </row>
-    <row r="102" spans="1:38">
+    <row r="102" spans="1:39">
       <c r="A102">
         <v>80009</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C102" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D102" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E102">
         <v>906</v>
       </c>
       <c r="F102" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -15118,13 +15428,13 @@
         <v>0</v>
       </c>
       <c r="Q102" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R102">
         <v>1</v>
       </c>
       <c r="S102" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T102">
         <v>0</v>
@@ -15160,13 +15470,13 @@
         <v>0</v>
       </c>
       <c r="AE102" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AF102" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AG102" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="AH102">
         <v>2</v>
@@ -15177,31 +15487,34 @@
       <c r="AJ102">
         <v>10</v>
       </c>
-      <c r="AK102" t="s">
-        <v>773</v>
+      <c r="AK102">
+        <v>0.5</v>
       </c>
       <c r="AL102" t="s">
-        <v>774</v>
+        <v>775</v>
+      </c>
+      <c r="AM102" t="s">
+        <v>776</v>
       </c>
     </row>
-    <row r="103" spans="1:38">
+    <row r="103" spans="1:39">
       <c r="A103">
         <v>80010</v>
       </c>
       <c r="B103" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C103" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D103" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E103">
         <v>907</v>
       </c>
       <c r="F103" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -15234,13 +15547,13 @@
         <v>0</v>
       </c>
       <c r="Q103" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R103">
         <v>1</v>
       </c>
       <c r="S103" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T103">
         <v>0</v>
@@ -15276,13 +15589,13 @@
         <v>0</v>
       </c>
       <c r="AE103" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="AF103" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AG103" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AH103">
         <v>2</v>
@@ -15293,31 +15606,34 @@
       <c r="AJ103">
         <v>10</v>
       </c>
-      <c r="AK103" t="s">
-        <v>780</v>
+      <c r="AK103">
+        <v>0.5</v>
       </c>
       <c r="AL103" t="s">
-        <v>781</v>
+        <v>782</v>
+      </c>
+      <c r="AM103" t="s">
+        <v>783</v>
       </c>
     </row>
-    <row r="104" spans="1:38">
+    <row r="104" spans="1:39">
       <c r="A104">
         <v>80011</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C104" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D104" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E104">
         <v>908</v>
       </c>
       <c r="F104" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -15350,13 +15666,13 @@
         <v>0</v>
       </c>
       <c r="Q104" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R104">
         <v>1</v>
       </c>
       <c r="S104" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T104">
         <v>0</v>
@@ -15392,13 +15708,13 @@
         <v>0</v>
       </c>
       <c r="AE104" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="AF104" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="AG104" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="AH104">
         <v>2</v>
@@ -15409,31 +15725,34 @@
       <c r="AJ104">
         <v>10</v>
       </c>
-      <c r="AK104" t="s">
-        <v>787</v>
+      <c r="AK104">
+        <v>0.5</v>
       </c>
       <c r="AL104" t="s">
-        <v>788</v>
+        <v>789</v>
+      </c>
+      <c r="AM104" t="s">
+        <v>790</v>
       </c>
     </row>
-    <row r="105" spans="1:38">
+    <row r="105" spans="1:39">
       <c r="A105">
         <v>80012</v>
       </c>
       <c r="B105" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C105" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D105" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E105">
         <v>909</v>
       </c>
       <c r="F105" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -15466,13 +15785,13 @@
         <v>0</v>
       </c>
       <c r="Q105" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R105">
         <v>1</v>
       </c>
       <c r="S105" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T105">
         <v>0</v>
@@ -15508,13 +15827,13 @@
         <v>0</v>
       </c>
       <c r="AE105" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="AF105" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="AG105" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="AH105">
         <v>2</v>
@@ -15525,31 +15844,34 @@
       <c r="AJ105">
         <v>10</v>
       </c>
-      <c r="AK105" t="s">
-        <v>794</v>
+      <c r="AK105">
+        <v>0.5</v>
       </c>
       <c r="AL105" t="s">
-        <v>795</v>
+        <v>796</v>
+      </c>
+      <c r="AM105" t="s">
+        <v>797</v>
       </c>
     </row>
-    <row r="106" spans="1:38">
+    <row r="106" spans="1:39">
       <c r="A106">
         <v>80013</v>
       </c>
       <c r="B106" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C106" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D106" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E106">
         <v>910</v>
       </c>
       <c r="F106" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -15582,13 +15904,13 @@
         <v>0</v>
       </c>
       <c r="Q106" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R106">
         <v>1</v>
       </c>
       <c r="S106" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T106">
         <v>0</v>
@@ -15624,13 +15946,13 @@
         <v>0</v>
       </c>
       <c r="AE106" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AF106" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="AG106" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="AH106">
         <v>2</v>
@@ -15641,31 +15963,34 @@
       <c r="AJ106">
         <v>10</v>
       </c>
-      <c r="AK106" t="s">
-        <v>801</v>
+      <c r="AK106">
+        <v>0.5</v>
       </c>
       <c r="AL106" t="s">
-        <v>802</v>
+        <v>803</v>
+      </c>
+      <c r="AM106" t="s">
+        <v>804</v>
       </c>
     </row>
-    <row r="107" spans="1:38">
+    <row r="107" spans="1:39">
       <c r="A107">
         <v>90001</v>
       </c>
       <c r="B107" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C107" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D107" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E107">
         <v>902</v>
       </c>
       <c r="F107" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -15698,13 +16023,13 @@
         <v>0</v>
       </c>
       <c r="Q107" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R107">
         <v>1</v>
       </c>
       <c r="S107" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T107">
         <v>0</v>
@@ -15740,13 +16065,13 @@
         <v>0</v>
       </c>
       <c r="AE107" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="AF107" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="AG107" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AH107">
         <v>2</v>
@@ -15757,31 +16082,34 @@
       <c r="AJ107">
         <v>10</v>
       </c>
-      <c r="AK107" t="s">
-        <v>808</v>
+      <c r="AK107">
+        <v>0.5</v>
       </c>
       <c r="AL107" t="s">
-        <v>809</v>
+        <v>810</v>
+      </c>
+      <c r="AM107" t="s">
+        <v>811</v>
       </c>
     </row>
-    <row r="108" spans="1:38">
+    <row r="108" spans="1:39">
       <c r="A108">
         <v>90002</v>
       </c>
       <c r="B108" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C108" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D108" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E108">
         <v>903</v>
       </c>
       <c r="F108" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -15814,13 +16142,13 @@
         <v>0</v>
       </c>
       <c r="Q108" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R108">
         <v>1</v>
       </c>
       <c r="S108" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T108">
         <v>0</v>
@@ -15856,13 +16184,13 @@
         <v>0</v>
       </c>
       <c r="AE108" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AF108" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="AG108" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="AH108">
         <v>2</v>
@@ -15873,31 +16201,34 @@
       <c r="AJ108">
         <v>10</v>
       </c>
-      <c r="AK108" t="s">
-        <v>815</v>
+      <c r="AK108">
+        <v>0.5</v>
       </c>
       <c r="AL108" t="s">
-        <v>816</v>
+        <v>817</v>
+      </c>
+      <c r="AM108" t="s">
+        <v>818</v>
       </c>
     </row>
-    <row r="109" spans="1:38">
+    <row r="109" spans="1:39">
       <c r="A109">
         <v>90003</v>
       </c>
       <c r="B109" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C109" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D109" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E109">
         <v>907</v>
       </c>
       <c r="F109" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -15930,13 +16261,13 @@
         <v>0</v>
       </c>
       <c r="Q109" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R109">
         <v>1</v>
       </c>
       <c r="S109" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T109">
         <v>0</v>
@@ -15972,13 +16303,13 @@
         <v>0</v>
       </c>
       <c r="AE109" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="AF109" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="AG109" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AH109">
         <v>2</v>
@@ -15989,31 +16320,34 @@
       <c r="AJ109">
         <v>10</v>
       </c>
-      <c r="AK109" t="s">
-        <v>822</v>
+      <c r="AK109">
+        <v>0.5</v>
       </c>
       <c r="AL109" t="s">
-        <v>823</v>
+        <v>824</v>
+      </c>
+      <c r="AM109" t="s">
+        <v>825</v>
       </c>
     </row>
-    <row r="110" spans="1:38">
+    <row r="110" spans="1:39">
       <c r="A110">
         <v>90004</v>
       </c>
       <c r="B110" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C110" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D110" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E110">
         <v>923</v>
       </c>
       <c r="F110" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -16046,13 +16380,13 @@
         <v>0</v>
       </c>
       <c r="Q110" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R110">
         <v>1</v>
       </c>
       <c r="S110" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T110">
         <v>0</v>
@@ -16088,13 +16422,13 @@
         <v>0</v>
       </c>
       <c r="AE110" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="AF110" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="AG110" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AH110">
         <v>2</v>
@@ -16105,31 +16439,34 @@
       <c r="AJ110">
         <v>10</v>
       </c>
-      <c r="AK110" t="s">
-        <v>829</v>
+      <c r="AK110">
+        <v>0.5</v>
       </c>
       <c r="AL110" t="s">
-        <v>830</v>
+        <v>831</v>
+      </c>
+      <c r="AM110" t="s">
+        <v>832</v>
       </c>
     </row>
-    <row r="111" spans="1:38">
+    <row r="111" spans="1:39">
       <c r="A111">
         <v>90005</v>
       </c>
       <c r="B111" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C111" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D111" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E111">
         <v>906</v>
       </c>
       <c r="F111" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -16162,13 +16499,13 @@
         <v>0</v>
       </c>
       <c r="Q111" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R111">
         <v>1</v>
       </c>
       <c r="S111" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T111">
         <v>0</v>
@@ -16204,13 +16541,13 @@
         <v>0</v>
       </c>
       <c r="AE111" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="AF111" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AG111" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="AH111">
         <v>2</v>
@@ -16221,31 +16558,34 @@
       <c r="AJ111">
         <v>10</v>
       </c>
-      <c r="AK111" t="s">
-        <v>836</v>
+      <c r="AK111">
+        <v>0.5</v>
       </c>
       <c r="AL111" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="AM111" t="s">
+        <v>839</v>
       </c>
     </row>
-    <row r="112" spans="1:38">
+    <row r="112" spans="1:39">
       <c r="A112">
         <v>90006</v>
       </c>
       <c r="B112" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C112" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D112" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E112">
         <v>911</v>
       </c>
       <c r="F112" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -16278,13 +16618,13 @@
         <v>0</v>
       </c>
       <c r="Q112" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R112">
         <v>1</v>
       </c>
       <c r="S112" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T112">
         <v>0</v>
@@ -16320,13 +16660,13 @@
         <v>0</v>
       </c>
       <c r="AE112" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="AF112" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AG112" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="AH112">
         <v>2</v>
@@ -16337,31 +16677,34 @@
       <c r="AJ112">
         <v>10</v>
       </c>
-      <c r="AK112" t="s">
-        <v>843</v>
+      <c r="AK112">
+        <v>0.5</v>
       </c>
       <c r="AL112" t="s">
-        <v>844</v>
+        <v>845</v>
+      </c>
+      <c r="AM112" t="s">
+        <v>846</v>
       </c>
     </row>
-    <row r="113" spans="1:38">
+    <row r="113" spans="1:39">
       <c r="A113">
         <v>90007</v>
       </c>
       <c r="B113" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C113" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D113" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E113">
         <v>918</v>
       </c>
       <c r="F113" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -16394,13 +16737,13 @@
         <v>0</v>
       </c>
       <c r="Q113" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R113">
         <v>1</v>
       </c>
       <c r="S113" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T113">
         <v>0</v>
@@ -16436,13 +16779,13 @@
         <v>0</v>
       </c>
       <c r="AE113" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AF113" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AG113" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="AH113">
         <v>2</v>
@@ -16453,31 +16796,34 @@
       <c r="AJ113">
         <v>10</v>
       </c>
-      <c r="AK113" t="s">
-        <v>850</v>
+      <c r="AK113">
+        <v>0.5</v>
       </c>
       <c r="AL113" t="s">
-        <v>851</v>
+        <v>852</v>
+      </c>
+      <c r="AM113" t="s">
+        <v>853</v>
       </c>
     </row>
-    <row r="114" spans="1:38">
+    <row r="114" spans="1:39">
       <c r="A114">
         <v>90008</v>
       </c>
       <c r="B114" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C114" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D114" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E114">
         <v>919</v>
       </c>
       <c r="F114" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -16510,13 +16856,13 @@
         <v>0</v>
       </c>
       <c r="Q114" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R114">
         <v>1</v>
       </c>
       <c r="S114" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T114">
         <v>0</v>
@@ -16552,13 +16898,13 @@
         <v>0</v>
       </c>
       <c r="AE114" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="AF114" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="AG114" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="AH114">
         <v>2</v>
@@ -16569,31 +16915,34 @@
       <c r="AJ114">
         <v>10</v>
       </c>
-      <c r="AK114" t="s">
-        <v>857</v>
+      <c r="AK114">
+        <v>0.5</v>
       </c>
       <c r="AL114" t="s">
-        <v>858</v>
+        <v>859</v>
+      </c>
+      <c r="AM114" t="s">
+        <v>860</v>
       </c>
     </row>
-    <row r="115" spans="1:38">
+    <row r="115" spans="1:39">
       <c r="A115">
         <v>90009</v>
       </c>
       <c r="B115" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C115" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D115" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E115">
         <v>920</v>
       </c>
       <c r="F115" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -16626,13 +16975,13 @@
         <v>0</v>
       </c>
       <c r="Q115" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R115">
         <v>1</v>
       </c>
       <c r="S115" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T115">
         <v>0</v>
@@ -16668,13 +17017,13 @@
         <v>0</v>
       </c>
       <c r="AE115" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="AF115" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="AG115" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="AH115">
         <v>2</v>
@@ -16685,31 +17034,34 @@
       <c r="AJ115">
         <v>10</v>
       </c>
-      <c r="AK115" t="s">
-        <v>864</v>
+      <c r="AK115">
+        <v>0.5</v>
       </c>
       <c r="AL115" t="s">
-        <v>865</v>
+        <v>866</v>
+      </c>
+      <c r="AM115" t="s">
+        <v>867</v>
       </c>
     </row>
-    <row r="116" spans="1:38">
+    <row r="116" spans="1:39">
       <c r="A116">
         <v>90010</v>
       </c>
       <c r="B116" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C116" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D116" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E116">
         <v>915</v>
       </c>
       <c r="F116" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -16742,13 +17094,13 @@
         <v>0</v>
       </c>
       <c r="Q116" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R116">
         <v>1</v>
       </c>
       <c r="S116" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T116">
         <v>0</v>
@@ -16784,13 +17136,13 @@
         <v>0</v>
       </c>
       <c r="AE116" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="AF116" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="AG116" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="AH116">
         <v>2</v>
@@ -16801,31 +17153,34 @@
       <c r="AJ116">
         <v>10</v>
       </c>
-      <c r="AK116" t="s">
-        <v>871</v>
+      <c r="AK116">
+        <v>0.5</v>
       </c>
       <c r="AL116" t="s">
-        <v>872</v>
+        <v>873</v>
+      </c>
+      <c r="AM116" t="s">
+        <v>874</v>
       </c>
     </row>
-    <row r="117" spans="1:38">
+    <row r="117" spans="1:39">
       <c r="A117">
         <v>100001</v>
       </c>
       <c r="B117" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C117" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D117" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E117">
         <v>902</v>
       </c>
       <c r="F117" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -16858,13 +17213,13 @@
         <v>0</v>
       </c>
       <c r="Q117" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R117">
         <v>1</v>
       </c>
       <c r="S117" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T117">
         <v>0</v>
@@ -16900,13 +17255,13 @@
         <v>0</v>
       </c>
       <c r="AE117" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="AF117" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="AG117" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="AH117">
         <v>2</v>
@@ -16917,31 +17272,34 @@
       <c r="AJ117">
         <v>10</v>
       </c>
-      <c r="AK117" t="s">
-        <v>878</v>
+      <c r="AK117">
+        <v>0.5</v>
       </c>
       <c r="AL117" t="s">
-        <v>879</v>
+        <v>880</v>
+      </c>
+      <c r="AM117" t="s">
+        <v>881</v>
       </c>
     </row>
-    <row r="118" spans="1:38">
+    <row r="118" spans="1:39">
       <c r="A118">
         <v>100002</v>
       </c>
       <c r="B118" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C118" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D118" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E118">
         <v>903</v>
       </c>
       <c r="F118" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -16974,13 +17332,13 @@
         <v>0</v>
       </c>
       <c r="Q118" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R118">
         <v>2</v>
       </c>
       <c r="S118" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T118">
         <v>0</v>
@@ -17016,13 +17374,13 @@
         <v>0</v>
       </c>
       <c r="AE118" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="AF118" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="AG118" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="AH118">
         <v>2</v>
@@ -17033,31 +17391,34 @@
       <c r="AJ118">
         <v>10</v>
       </c>
-      <c r="AK118" t="s">
-        <v>885</v>
+      <c r="AK118">
+        <v>0.5</v>
       </c>
       <c r="AL118" t="s">
-        <v>886</v>
+        <v>887</v>
+      </c>
+      <c r="AM118" t="s">
+        <v>888</v>
       </c>
     </row>
-    <row r="119" spans="1:38">
+    <row r="119" spans="1:39">
       <c r="A119">
         <v>100003</v>
       </c>
       <c r="B119" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C119" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="D119" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E119">
         <v>907</v>
       </c>
       <c r="F119" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -17090,13 +17451,13 @@
         <v>0</v>
       </c>
       <c r="Q119" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R119">
         <v>2</v>
       </c>
       <c r="S119" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T119">
         <v>0</v>
@@ -17132,13 +17493,13 @@
         <v>0</v>
       </c>
       <c r="AE119" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="AF119" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="AG119" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="AH119">
         <v>2</v>
@@ -17149,31 +17510,34 @@
       <c r="AJ119">
         <v>10</v>
       </c>
-      <c r="AK119" t="s">
-        <v>892</v>
+      <c r="AK119">
+        <v>0.5</v>
       </c>
       <c r="AL119" t="s">
-        <v>893</v>
+        <v>894</v>
+      </c>
+      <c r="AM119" t="s">
+        <v>895</v>
       </c>
     </row>
-    <row r="120" spans="1:38">
+    <row r="120" spans="1:39">
       <c r="A120">
         <v>100004</v>
       </c>
       <c r="B120" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C120" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D120" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E120">
         <v>923</v>
       </c>
       <c r="F120" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -17206,13 +17570,13 @@
         <v>0</v>
       </c>
       <c r="Q120" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R120">
         <v>2</v>
       </c>
       <c r="S120" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T120">
         <v>0</v>
@@ -17248,13 +17612,13 @@
         <v>0</v>
       </c>
       <c r="AE120" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="AF120" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="AG120" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="AH120">
         <v>2</v>
@@ -17265,31 +17629,34 @@
       <c r="AJ120">
         <v>10</v>
       </c>
-      <c r="AK120" t="s">
-        <v>899</v>
+      <c r="AK120">
+        <v>0.5</v>
       </c>
       <c r="AL120" t="s">
-        <v>900</v>
+        <v>901</v>
+      </c>
+      <c r="AM120" t="s">
+        <v>902</v>
       </c>
     </row>
-    <row r="121" spans="1:38">
+    <row r="121" spans="1:39">
       <c r="A121">
         <v>100005</v>
       </c>
       <c r="B121" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C121" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D121" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E121">
         <v>906</v>
       </c>
       <c r="F121" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -17322,13 +17689,13 @@
         <v>0</v>
       </c>
       <c r="Q121" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R121">
         <v>2</v>
       </c>
       <c r="S121" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T121">
         <v>0</v>
@@ -17364,13 +17731,13 @@
         <v>0</v>
       </c>
       <c r="AE121" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="AF121" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="AG121" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="AH121">
         <v>2</v>
@@ -17381,31 +17748,34 @@
       <c r="AJ121">
         <v>10</v>
       </c>
-      <c r="AK121" t="s">
-        <v>906</v>
+      <c r="AK121">
+        <v>0.5</v>
       </c>
       <c r="AL121" t="s">
-        <v>907</v>
+        <v>908</v>
+      </c>
+      <c r="AM121" t="s">
+        <v>909</v>
       </c>
     </row>
-    <row r="122" spans="1:38">
+    <row r="122" spans="1:39">
       <c r="A122">
         <v>100006</v>
       </c>
       <c r="B122" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C122" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="D122" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E122">
         <v>911</v>
       </c>
       <c r="F122" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -17438,13 +17808,13 @@
         <v>0</v>
       </c>
       <c r="Q122" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R122">
         <v>2</v>
       </c>
       <c r="S122" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T122">
         <v>0</v>
@@ -17480,13 +17850,13 @@
         <v>0</v>
       </c>
       <c r="AE122" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="AF122" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="AG122" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="AH122">
         <v>2</v>
@@ -17497,31 +17867,34 @@
       <c r="AJ122">
         <v>10</v>
       </c>
-      <c r="AK122" t="s">
-        <v>913</v>
+      <c r="AK122">
+        <v>0.5</v>
       </c>
       <c r="AL122" t="s">
-        <v>914</v>
+        <v>915</v>
+      </c>
+      <c r="AM122" t="s">
+        <v>916</v>
       </c>
     </row>
-    <row r="123" spans="1:38">
+    <row r="123" spans="1:39">
       <c r="A123">
         <v>100007</v>
       </c>
       <c r="B123" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C123" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D123" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E123">
         <v>918</v>
       </c>
       <c r="F123" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -17554,13 +17927,13 @@
         <v>0</v>
       </c>
       <c r="Q123" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R123">
         <v>2</v>
       </c>
       <c r="S123" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T123">
         <v>0</v>
@@ -17596,13 +17969,13 @@
         <v>0</v>
       </c>
       <c r="AE123" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="AF123" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="AG123" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="AH123">
         <v>2</v>
@@ -17613,31 +17986,34 @@
       <c r="AJ123">
         <v>10</v>
       </c>
-      <c r="AK123" t="s">
-        <v>920</v>
+      <c r="AK123">
+        <v>0.5</v>
       </c>
       <c r="AL123" t="s">
-        <v>921</v>
+        <v>922</v>
+      </c>
+      <c r="AM123" t="s">
+        <v>923</v>
       </c>
     </row>
-    <row r="124" spans="1:38">
+    <row r="124" spans="1:39">
       <c r="A124">
         <v>100008</v>
       </c>
       <c r="B124" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C124" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D124" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E124">
         <v>919</v>
       </c>
       <c r="F124" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -17670,13 +18046,13 @@
         <v>0</v>
       </c>
       <c r="Q124" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R124">
         <v>3</v>
       </c>
       <c r="S124" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T124">
         <v>0</v>
@@ -17712,13 +18088,13 @@
         <v>0</v>
       </c>
       <c r="AE124" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="AF124" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="AG124" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="AH124">
         <v>2</v>
@@ -17729,31 +18105,34 @@
       <c r="AJ124">
         <v>10</v>
       </c>
-      <c r="AK124" t="s">
-        <v>927</v>
+      <c r="AK124">
+        <v>0.5</v>
       </c>
       <c r="AL124" t="s">
-        <v>928</v>
+        <v>929</v>
+      </c>
+      <c r="AM124" t="s">
+        <v>930</v>
       </c>
     </row>
-    <row r="125" spans="1:38">
+    <row r="125" spans="1:39">
       <c r="A125">
         <v>100009</v>
       </c>
       <c r="B125" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C125" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="D125" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E125">
         <v>920</v>
       </c>
       <c r="F125" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -17786,13 +18165,13 @@
         <v>0</v>
       </c>
       <c r="Q125" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R125">
         <v>4</v>
       </c>
       <c r="S125" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T125">
         <v>0</v>
@@ -17828,13 +18207,13 @@
         <v>0</v>
       </c>
       <c r="AE125" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="AF125" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="AG125" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="AH125">
         <v>2</v>
@@ -17845,31 +18224,34 @@
       <c r="AJ125">
         <v>10</v>
       </c>
-      <c r="AK125" t="s">
-        <v>934</v>
+      <c r="AK125">
+        <v>0.5</v>
       </c>
       <c r="AL125" t="s">
-        <v>935</v>
+        <v>936</v>
+      </c>
+      <c r="AM125" t="s">
+        <v>937</v>
       </c>
     </row>
-    <row r="126" spans="1:38">
+    <row r="126" spans="1:39">
       <c r="A126">
         <v>100010</v>
       </c>
       <c r="B126" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C126" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D126" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E126">
         <v>915</v>
       </c>
       <c r="F126" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -17902,13 +18284,13 @@
         <v>0</v>
       </c>
       <c r="Q126" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R126">
         <v>2</v>
       </c>
       <c r="S126" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T126">
         <v>0</v>
@@ -17944,13 +18326,13 @@
         <v>0</v>
       </c>
       <c r="AE126" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="AF126" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="AG126" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="AH126">
         <v>2</v>
@@ -17961,31 +18343,34 @@
       <c r="AJ126">
         <v>10</v>
       </c>
-      <c r="AK126" t="s">
-        <v>941</v>
+      <c r="AK126">
+        <v>0.5</v>
       </c>
       <c r="AL126" t="s">
-        <v>942</v>
+        <v>943</v>
+      </c>
+      <c r="AM126" t="s">
+        <v>944</v>
       </c>
     </row>
-    <row r="127" spans="1:38">
+    <row r="127" spans="1:39">
       <c r="A127">
         <v>100011</v>
       </c>
       <c r="B127" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C127" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="D127" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E127">
         <v>921</v>
       </c>
       <c r="F127" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -18018,13 +18403,13 @@
         <v>0</v>
       </c>
       <c r="Q127" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R127">
         <v>2</v>
       </c>
       <c r="S127" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T127">
         <v>0</v>
@@ -18060,13 +18445,13 @@
         <v>0</v>
       </c>
       <c r="AE127" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="AF127" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="AG127" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="AH127">
         <v>2</v>
@@ -18077,16 +18462,19 @@
       <c r="AJ127">
         <v>10</v>
       </c>
-      <c r="AK127" t="s">
-        <v>948</v>
+      <c r="AK127">
+        <v>0.5</v>
       </c>
       <c r="AL127" t="s">
-        <v>949</v>
+        <v>950</v>
+      </c>
+      <c r="AM127" t="s">
+        <v>951</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A3 B3 C3:I3 J3:L3 M3 N3 O3:AG3 AH3 AI3 AJ3 AK3:AL3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A3 B3 C3:I3 J3:L3 M3 N3 O3:AG3 AH3 AI3 AJ3 AK3 AL3:AM3">
       <formula1>"cs,s,c,skip"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/DataTable/Excel/角色实体配置表.xlsx
+++ b/Project/DataTable/Excel/角色实体配置表.xlsx
@@ -2848,9 +2848,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -3297,8 +3297,8 @@
   <sheetPr/>
   <dimension ref="A1:AM128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S5" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11:AF17"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AK19" sqref="AK19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25"/>
@@ -3933,7 +3933,7 @@
         <v>10</v>
       </c>
       <c r="AK6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL6" t="s">
         <v>94</v>
@@ -4052,7 +4052,7 @@
         <v>10</v>
       </c>
       <c r="AK7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL7" t="s">
         <v>102</v>
@@ -4171,7 +4171,7 @@
         <v>10</v>
       </c>
       <c r="AK8">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL8" t="s">
         <v>110</v>
@@ -4290,7 +4290,7 @@
         <v>10</v>
       </c>
       <c r="AK9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL9" t="s">
         <v>118</v>
@@ -4418,7 +4418,7 @@
         <v>10</v>
       </c>
       <c r="AK11">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL11" t="s">
         <v>127</v>
@@ -4537,7 +4537,7 @@
         <v>10</v>
       </c>
       <c r="AK12">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL12" t="s">
         <v>134</v>
@@ -4656,7 +4656,7 @@
         <v>10</v>
       </c>
       <c r="AK13">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL13" t="s">
         <v>141</v>
@@ -4775,7 +4775,7 @@
         <v>10</v>
       </c>
       <c r="AK14">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL14" t="s">
         <v>148</v>
@@ -4894,7 +4894,7 @@
         <v>10</v>
       </c>
       <c r="AK15">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL15" t="s">
         <v>155</v>
@@ -5013,7 +5013,7 @@
         <v>10</v>
       </c>
       <c r="AK16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL16" t="s">
         <v>162</v>
@@ -5132,7 +5132,7 @@
         <v>10</v>
       </c>
       <c r="AK17">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL17" t="s">
         <v>169</v>
@@ -5251,7 +5251,7 @@
         <v>176</v>
       </c>
       <c r="AH19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI19">
         <v>6</v>
@@ -5260,7 +5260,7 @@
         <v>10</v>
       </c>
       <c r="AK19">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL19" t="s">
         <v>177</v>
@@ -5379,7 +5379,7 @@
         <v>10</v>
       </c>
       <c r="AK20">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL20" t="s">
         <v>184</v>
@@ -5498,7 +5498,7 @@
         <v>10</v>
       </c>
       <c r="AK21">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL21" t="s">
         <v>191</v>
@@ -5617,7 +5617,7 @@
         <v>10</v>
       </c>
       <c r="AK22">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL22" t="s">
         <v>198</v>
@@ -5736,7 +5736,7 @@
         <v>10</v>
       </c>
       <c r="AK23">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL23" t="s">
         <v>205</v>
@@ -5855,7 +5855,7 @@
         <v>10</v>
       </c>
       <c r="AK24">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL24" t="s">
         <v>212</v>
@@ -5974,7 +5974,7 @@
         <v>10</v>
       </c>
       <c r="AK25">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL25" t="s">
         <v>219</v>
@@ -6093,7 +6093,7 @@
         <v>10</v>
       </c>
       <c r="AK26">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL26" t="s">
         <v>226</v>
@@ -6212,7 +6212,7 @@
         <v>10</v>
       </c>
       <c r="AK27">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL27" t="s">
         <v>233</v>
@@ -6331,7 +6331,7 @@
         <v>10</v>
       </c>
       <c r="AK28">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL28" t="s">
         <v>240</v>
@@ -6450,7 +6450,7 @@
         <v>10</v>
       </c>
       <c r="AK29">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL29" t="s">
         <v>247</v>
@@ -6569,7 +6569,7 @@
         <v>10</v>
       </c>
       <c r="AK30">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL30" t="s">
         <v>254</v>
@@ -6688,7 +6688,7 @@
         <v>10</v>
       </c>
       <c r="AK31">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL31" t="s">
         <v>261</v>
@@ -6807,7 +6807,7 @@
         <v>10</v>
       </c>
       <c r="AK32">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL32" t="s">
         <v>268</v>
@@ -6926,7 +6926,7 @@
         <v>10</v>
       </c>
       <c r="AK33">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL33" t="s">
         <v>275</v>
@@ -7045,7 +7045,7 @@
         <v>10</v>
       </c>
       <c r="AK34">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL34" t="s">
         <v>282</v>
@@ -7164,7 +7164,7 @@
         <v>10</v>
       </c>
       <c r="AK35">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL35" t="s">
         <v>289</v>
@@ -7283,7 +7283,7 @@
         <v>10</v>
       </c>
       <c r="AK36">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL36" t="s">
         <v>296</v>
@@ -7402,7 +7402,7 @@
         <v>10</v>
       </c>
       <c r="AK37">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL37" t="s">
         <v>303</v>
@@ -7521,7 +7521,7 @@
         <v>10</v>
       </c>
       <c r="AK38">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL38" t="s">
         <v>310</v>
@@ -7640,7 +7640,7 @@
         <v>10</v>
       </c>
       <c r="AK39">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL39" t="s">
         <v>317</v>
@@ -7759,7 +7759,7 @@
         <v>10</v>
       </c>
       <c r="AK40">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL40" t="s">
         <v>324</v>
@@ -7878,7 +7878,7 @@
         <v>10</v>
       </c>
       <c r="AK41">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL41" t="s">
         <v>331</v>
@@ -7997,7 +7997,7 @@
         <v>10</v>
       </c>
       <c r="AK42">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL42" t="s">
         <v>338</v>
@@ -8116,7 +8116,7 @@
         <v>10</v>
       </c>
       <c r="AK43">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL43" t="s">
         <v>345</v>
@@ -8235,7 +8235,7 @@
         <v>10</v>
       </c>
       <c r="AK44">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL44" t="s">
         <v>352</v>
@@ -8354,7 +8354,7 @@
         <v>10</v>
       </c>
       <c r="AK45">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL45" t="s">
         <v>359</v>
@@ -8473,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="AK46">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL46" t="s">
         <v>366</v>
@@ -8592,7 +8592,7 @@
         <v>10</v>
       </c>
       <c r="AK47">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL47" t="s">
         <v>373</v>
@@ -8711,7 +8711,7 @@
         <v>10</v>
       </c>
       <c r="AK48">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL48" t="s">
         <v>380</v>
@@ -8830,7 +8830,7 @@
         <v>10</v>
       </c>
       <c r="AK49">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL49" t="s">
         <v>387</v>
@@ -8949,7 +8949,7 @@
         <v>10</v>
       </c>
       <c r="AK50">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL50" t="s">
         <v>394</v>
@@ -9068,7 +9068,7 @@
         <v>10</v>
       </c>
       <c r="AK51">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL51" t="s">
         <v>401</v>
@@ -9187,7 +9187,7 @@
         <v>10</v>
       </c>
       <c r="AK52">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL52" t="s">
         <v>408</v>
@@ -9306,7 +9306,7 @@
         <v>10</v>
       </c>
       <c r="AK53">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL53" t="s">
         <v>415</v>
@@ -9425,7 +9425,7 @@
         <v>10</v>
       </c>
       <c r="AK54">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL54" t="s">
         <v>422</v>
@@ -9544,7 +9544,7 @@
         <v>10</v>
       </c>
       <c r="AK55">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL55" t="s">
         <v>429</v>
@@ -9663,7 +9663,7 @@
         <v>10</v>
       </c>
       <c r="AK56">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL56" t="s">
         <v>436</v>
@@ -9782,7 +9782,7 @@
         <v>10</v>
       </c>
       <c r="AK57">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL57" t="s">
         <v>443</v>
@@ -9901,7 +9901,7 @@
         <v>10</v>
       </c>
       <c r="AK58">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL58" t="s">
         <v>450</v>
@@ -10020,7 +10020,7 @@
         <v>10</v>
       </c>
       <c r="AK59">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL59" t="s">
         <v>457</v>
@@ -10139,7 +10139,7 @@
         <v>10</v>
       </c>
       <c r="AK60">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL60" t="s">
         <v>464</v>
@@ -10258,7 +10258,7 @@
         <v>10</v>
       </c>
       <c r="AK61">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL61" t="s">
         <v>471</v>
@@ -10377,7 +10377,7 @@
         <v>10</v>
       </c>
       <c r="AK62">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL62" t="s">
         <v>478</v>
@@ -10496,7 +10496,7 @@
         <v>10</v>
       </c>
       <c r="AK63">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL63" t="s">
         <v>485</v>
@@ -10615,7 +10615,7 @@
         <v>10</v>
       </c>
       <c r="AK64">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL64" t="s">
         <v>492</v>
@@ -10734,7 +10734,7 @@
         <v>10</v>
       </c>
       <c r="AK65">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL65" t="s">
         <v>499</v>
@@ -10853,7 +10853,7 @@
         <v>10</v>
       </c>
       <c r="AK66">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL66" t="s">
         <v>506</v>
@@ -10972,7 +10972,7 @@
         <v>10</v>
       </c>
       <c r="AK67">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL67" t="s">
         <v>513</v>
@@ -11091,7 +11091,7 @@
         <v>10</v>
       </c>
       <c r="AK68">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL68" t="s">
         <v>520</v>
@@ -11210,7 +11210,7 @@
         <v>10</v>
       </c>
       <c r="AK69">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL69" t="s">
         <v>527</v>
@@ -11329,7 +11329,7 @@
         <v>10</v>
       </c>
       <c r="AK70">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL70" t="s">
         <v>534</v>
@@ -11448,7 +11448,7 @@
         <v>10</v>
       </c>
       <c r="AK71">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL71" t="s">
         <v>541</v>
@@ -11567,7 +11567,7 @@
         <v>10</v>
       </c>
       <c r="AK72">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL72" t="s">
         <v>548</v>
@@ -11686,7 +11686,7 @@
         <v>10</v>
       </c>
       <c r="AK73">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL73" t="s">
         <v>555</v>
@@ -11805,7 +11805,7 @@
         <v>10</v>
       </c>
       <c r="AK74">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL74" t="s">
         <v>562</v>
@@ -11924,7 +11924,7 @@
         <v>10</v>
       </c>
       <c r="AK75">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL75" t="s">
         <v>569</v>
@@ -12043,7 +12043,7 @@
         <v>10</v>
       </c>
       <c r="AK76">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL76" t="s">
         <v>576</v>
@@ -12162,7 +12162,7 @@
         <v>10</v>
       </c>
       <c r="AK77">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL77" t="s">
         <v>583</v>
@@ -12281,7 +12281,7 @@
         <v>10</v>
       </c>
       <c r="AK78">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL78" t="s">
         <v>590</v>
@@ -12400,7 +12400,7 @@
         <v>10</v>
       </c>
       <c r="AK79">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL79" t="s">
         <v>597</v>
@@ -12519,7 +12519,7 @@
         <v>10</v>
       </c>
       <c r="AK80">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL80" t="s">
         <v>604</v>
@@ -12638,7 +12638,7 @@
         <v>10</v>
       </c>
       <c r="AK81">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL81" t="s">
         <v>611</v>
@@ -12757,7 +12757,7 @@
         <v>10</v>
       </c>
       <c r="AK82">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL82" t="s">
         <v>618</v>
@@ -12876,7 +12876,7 @@
         <v>10</v>
       </c>
       <c r="AK83">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL83" t="s">
         <v>625</v>
@@ -12995,7 +12995,7 @@
         <v>10</v>
       </c>
       <c r="AK84">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL84" t="s">
         <v>632</v>
@@ -13114,7 +13114,7 @@
         <v>10</v>
       </c>
       <c r="AK85">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL85" t="s">
         <v>639</v>
@@ -13233,7 +13233,7 @@
         <v>10</v>
       </c>
       <c r="AK86">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL86" t="s">
         <v>646</v>
@@ -13352,7 +13352,7 @@
         <v>10</v>
       </c>
       <c r="AK87">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL87" t="s">
         <v>653</v>
@@ -13471,7 +13471,7 @@
         <v>10</v>
       </c>
       <c r="AK88">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL88" t="s">
         <v>660</v>
@@ -13590,7 +13590,7 @@
         <v>10</v>
       </c>
       <c r="AK89">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL89" t="s">
         <v>667</v>
@@ -13709,7 +13709,7 @@
         <v>10</v>
       </c>
       <c r="AK90">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL90" t="s">
         <v>674</v>
@@ -13828,7 +13828,7 @@
         <v>10</v>
       </c>
       <c r="AK91">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL91" t="s">
         <v>681</v>
@@ -13947,7 +13947,7 @@
         <v>10</v>
       </c>
       <c r="AK92">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL92" t="s">
         <v>688</v>
@@ -14066,7 +14066,7 @@
         <v>10</v>
       </c>
       <c r="AK93">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL93" t="s">
         <v>695</v>
@@ -14185,7 +14185,7 @@
         <v>10</v>
       </c>
       <c r="AK94">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL94" t="s">
         <v>702</v>
@@ -14304,7 +14304,7 @@
         <v>10</v>
       </c>
       <c r="AK95">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL95" t="s">
         <v>709</v>
@@ -14423,7 +14423,7 @@
         <v>10</v>
       </c>
       <c r="AK96">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL96" t="s">
         <v>716</v>
@@ -14542,7 +14542,7 @@
         <v>10</v>
       </c>
       <c r="AK97">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL97" t="s">
         <v>723</v>
@@ -14661,7 +14661,7 @@
         <v>10</v>
       </c>
       <c r="AK98">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL98" t="s">
         <v>730</v>
@@ -14780,7 +14780,7 @@
         <v>10</v>
       </c>
       <c r="AK99">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL99" t="s">
         <v>737</v>
@@ -14899,7 +14899,7 @@
         <v>10</v>
       </c>
       <c r="AK100">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL100" t="s">
         <v>744</v>
@@ -15018,7 +15018,7 @@
         <v>10</v>
       </c>
       <c r="AK101">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL101" t="s">
         <v>751</v>
@@ -15137,7 +15137,7 @@
         <v>10</v>
       </c>
       <c r="AK102">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL102" t="s">
         <v>758</v>
@@ -15256,7 +15256,7 @@
         <v>10</v>
       </c>
       <c r="AK103">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL103" t="s">
         <v>765</v>
@@ -15375,7 +15375,7 @@
         <v>10</v>
       </c>
       <c r="AK104">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL104" t="s">
         <v>772</v>
@@ -15494,7 +15494,7 @@
         <v>10</v>
       </c>
       <c r="AK105">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL105" t="s">
         <v>779</v>
@@ -15613,7 +15613,7 @@
         <v>10</v>
       </c>
       <c r="AK106">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL106" t="s">
         <v>786</v>
@@ -15732,7 +15732,7 @@
         <v>10</v>
       </c>
       <c r="AK107">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL107" t="s">
         <v>793</v>
@@ -15851,7 +15851,7 @@
         <v>10</v>
       </c>
       <c r="AK108">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL108" t="s">
         <v>800</v>
@@ -15970,7 +15970,7 @@
         <v>10</v>
       </c>
       <c r="AK109">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL109" t="s">
         <v>807</v>
@@ -16089,7 +16089,7 @@
         <v>10</v>
       </c>
       <c r="AK110">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL110" t="s">
         <v>814</v>
@@ -16208,7 +16208,7 @@
         <v>10</v>
       </c>
       <c r="AK111">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL111" t="s">
         <v>821</v>
@@ -16327,7 +16327,7 @@
         <v>10</v>
       </c>
       <c r="AK112">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL112" t="s">
         <v>828</v>
@@ -16446,7 +16446,7 @@
         <v>10</v>
       </c>
       <c r="AK113">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL113" t="s">
         <v>835</v>
@@ -16565,7 +16565,7 @@
         <v>10</v>
       </c>
       <c r="AK114">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL114" t="s">
         <v>842</v>
@@ -16684,7 +16684,7 @@
         <v>10</v>
       </c>
       <c r="AK115">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL115" t="s">
         <v>849</v>
@@ -16803,7 +16803,7 @@
         <v>10</v>
       </c>
       <c r="AK116">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL116" t="s">
         <v>856</v>
@@ -16922,7 +16922,7 @@
         <v>10</v>
       </c>
       <c r="AK117">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL117" t="s">
         <v>863</v>
@@ -17041,7 +17041,7 @@
         <v>10</v>
       </c>
       <c r="AK118">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL118" t="s">
         <v>870</v>
@@ -17160,7 +17160,7 @@
         <v>10</v>
       </c>
       <c r="AK119">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL119" t="s">
         <v>877</v>
@@ -17279,7 +17279,7 @@
         <v>10</v>
       </c>
       <c r="AK120">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL120" t="s">
         <v>884</v>
@@ -17398,7 +17398,7 @@
         <v>10</v>
       </c>
       <c r="AK121">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL121" t="s">
         <v>891</v>
@@ -17517,7 +17517,7 @@
         <v>10</v>
       </c>
       <c r="AK122">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL122" t="s">
         <v>898</v>
@@ -17636,7 +17636,7 @@
         <v>10</v>
       </c>
       <c r="AK123">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL123" t="s">
         <v>905</v>
@@ -17755,7 +17755,7 @@
         <v>10</v>
       </c>
       <c r="AK124">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL124" t="s">
         <v>912</v>
@@ -17874,7 +17874,7 @@
         <v>10</v>
       </c>
       <c r="AK125">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL125" t="s">
         <v>919</v>
@@ -17993,7 +17993,7 @@
         <v>10</v>
       </c>
       <c r="AK126">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL126" t="s">
         <v>926</v>
@@ -18112,7 +18112,7 @@
         <v>10</v>
       </c>
       <c r="AK127">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL127" t="s">
         <v>933</v>
@@ -18231,7 +18231,7 @@
         <v>10</v>
       </c>
       <c r="AK128">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL128" t="s">
         <v>940</v>

--- a/Project/DataTable/Excel/角色实体配置表.xlsx
+++ b/Project/DataTable/Excel/角色实体配置表.xlsx
@@ -1806,8 +1806,8 @@
   <sheetPr/>
   <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25"/>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>162</v>
       </c>
       <c r="AG19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI19">
         <v>10</v>
@@ -3767,10 +3767,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>168</v>
       </c>
       <c r="AG20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH20">
         <v>6</v>
@@ -3883,10 +3883,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>2</v>
       </c>
       <c r="AH21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI21">
         <v>10</v>
@@ -3999,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -4062,7 +4062,7 @@
         <v>2</v>
       </c>
       <c r="AH22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI22">
         <v>10</v>
@@ -4115,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>8.75</v>
+        <v>2.5</v>
       </c>
       <c r="N23">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O23">
-        <v>65002</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -4175,7 +4175,7 @@
         <v>186</v>
       </c>
       <c r="AG23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH23">
         <v>6</v>
@@ -4231,10 +4231,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>8.75</v>
+        <v>2.5</v>
       </c>
       <c r="N24">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -4291,7 +4291,7 @@
         <v>192</v>
       </c>
       <c r="AG24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH24">
         <v>6</v>
@@ -4347,16 +4347,16 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="N25">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>65004</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>87</v>
@@ -4407,13 +4407,13 @@
         <v>198</v>
       </c>
       <c r="AG25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ25">
         <v>0.2</v>

--- a/Project/DataTable/Excel/角色实体配置表.xlsx
+++ b/Project/DataTable/Excel/角色实体配置表.xlsx
@@ -1356,10 +1356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1806,8 +1806,8 @@
   <sheetPr/>
   <dimension ref="A1:AL69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AH21" sqref="AH21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25"/>
@@ -3711,13 +3711,13 @@
         <v>162</v>
       </c>
       <c r="AG19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH19">
         <v>8</v>
       </c>
       <c r="AI19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ19">
         <v>0.2</v>
@@ -3833,7 +3833,7 @@
         <v>6</v>
       </c>
       <c r="AI20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ20">
         <v>0.2</v>
@@ -3946,10 +3946,10 @@
         <v>2</v>
       </c>
       <c r="AH21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ21">
         <v>0.2</v>
@@ -4062,10 +4062,10 @@
         <v>2</v>
       </c>
       <c r="AH22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI22">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ22">
         <v>0.2</v>
@@ -4175,13 +4175,13 @@
         <v>186</v>
       </c>
       <c r="AG23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ23">
         <v>0.2</v>
@@ -4291,13 +4291,13 @@
         <v>192</v>
       </c>
       <c r="AG24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI24">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ24">
         <v>0.2</v>
@@ -4380,25 +4380,25 @@
         <v>45</v>
       </c>
       <c r="X25">
+        <v>20</v>
+      </c>
+      <c r="Y25">
+        <v>100</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
         <v>5</v>
-      </c>
-      <c r="Y25">
-        <v>50</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>2</v>
       </c>
       <c r="AB25">
         <v>50</v>
       </c>
       <c r="AC25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AD25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="s">
         <v>197</v>
@@ -4407,7 +4407,7 @@
         <v>198</v>
       </c>
       <c r="AG25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH25">
         <v>10</v>

--- a/Project/DataTable/Excel/角色实体配置表.xlsx
+++ b/Project/DataTable/Excel/角色实体配置表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307">
   <si>
     <t>Id</t>
   </si>
@@ -805,168 +805,6 @@
     <t>Text/Actor/80004</t>
   </si>
   <si>
-    <t>魑魅之灵</t>
-  </si>
-  <si>
-    <t>魑魅之灵，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role94</t>
-  </si>
-  <si>
-    <t>Model/Pet/80005</t>
-  </si>
-  <si>
-    <t>Text/AI/80005</t>
-  </si>
-  <si>
-    <t>Text/Actor/80005</t>
-  </si>
-  <si>
-    <t>改造半龙</t>
-  </si>
-  <si>
-    <t>改造半龙，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role95</t>
-  </si>
-  <si>
-    <t>Model/Pet/80006</t>
-  </si>
-  <si>
-    <t>Text/AI/80006</t>
-  </si>
-  <si>
-    <t>Text/Actor/80006</t>
-  </si>
-  <si>
-    <t>死亡之翼</t>
-  </si>
-  <si>
-    <t>死亡之翼，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role96</t>
-  </si>
-  <si>
-    <t>Model/Pet/80007</t>
-  </si>
-  <si>
-    <t>Text/AI/80007</t>
-  </si>
-  <si>
-    <t>Text/Actor/80007</t>
-  </si>
-  <si>
-    <t>青翼蝠王</t>
-  </si>
-  <si>
-    <t>青翼蝠王，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role97</t>
-  </si>
-  <si>
-    <t>Model/Pet/80008</t>
-  </si>
-  <si>
-    <t>Text/AI/80008</t>
-  </si>
-  <si>
-    <t>Text/Actor/80008</t>
-  </si>
-  <si>
-    <t>财神鸟</t>
-  </si>
-  <si>
-    <t>财神鸟，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role98</t>
-  </si>
-  <si>
-    <t>Model/Pet/80009</t>
-  </si>
-  <si>
-    <t>Text/AI/80009</t>
-  </si>
-  <si>
-    <t>Text/Actor/80009</t>
-  </si>
-  <si>
-    <t>狮鹫</t>
-  </si>
-  <si>
-    <t>狮鹫，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role99</t>
-  </si>
-  <si>
-    <t>Model/Pet/80010</t>
-  </si>
-  <si>
-    <t>Text/AI/80010</t>
-  </si>
-  <si>
-    <t>Text/Actor/80010</t>
-  </si>
-  <si>
-    <t>狮精</t>
-  </si>
-  <si>
-    <t>狮精，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role100</t>
-  </si>
-  <si>
-    <t>Model/Pet/80011</t>
-  </si>
-  <si>
-    <t>Text/AI/80011</t>
-  </si>
-  <si>
-    <t>Text/Actor/80011</t>
-  </si>
-  <si>
-    <t>饕餮</t>
-  </si>
-  <si>
-    <t>饕餮，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role101</t>
-  </si>
-  <si>
-    <t>Model/Pet/80012</t>
-  </si>
-  <si>
-    <t>Text/AI/80012</t>
-  </si>
-  <si>
-    <t>Text/Actor/80012</t>
-  </si>
-  <si>
-    <t>角鹰</t>
-  </si>
-  <si>
-    <t>角鹰，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role102</t>
-  </si>
-  <si>
-    <t>Model/Pet/80013</t>
-  </si>
-  <si>
-    <t>Text/AI/80013</t>
-  </si>
-  <si>
-    <t>Text/Actor/80013</t>
-  </si>
-  <si>
     <t>伙伴</t>
   </si>
   <si>
@@ -1060,96 +898,6 @@
     <t>Text/Actor/90005</t>
   </si>
   <si>
-    <t>猫女加瓦</t>
-  </si>
-  <si>
-    <t>猫女加瓦，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role108</t>
-  </si>
-  <si>
-    <t>Model/Partner/90006</t>
-  </si>
-  <si>
-    <t>Text/AI/90006</t>
-  </si>
-  <si>
-    <t>Text/Actor/90006</t>
-  </si>
-  <si>
-    <t>猫女怒瓦</t>
-  </si>
-  <si>
-    <t>猫女怒瓦，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role109</t>
-  </si>
-  <si>
-    <t>Model/Partner/90007</t>
-  </si>
-  <si>
-    <t>Text/AI/90007</t>
-  </si>
-  <si>
-    <t>Text/Actor/90007</t>
-  </si>
-  <si>
-    <t>小萝莉</t>
-  </si>
-  <si>
-    <t>小萝莉，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role110</t>
-  </si>
-  <si>
-    <t>Model/Partner/90008</t>
-  </si>
-  <si>
-    <t>Text/AI/90008</t>
-  </si>
-  <si>
-    <t>Text/Actor/90008</t>
-  </si>
-  <si>
-    <t>火炮兰</t>
-  </si>
-  <si>
-    <t>火炮兰，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role111</t>
-  </si>
-  <si>
-    <t>Model/Partner/90009</t>
-  </si>
-  <si>
-    <t>Text/AI/90009</t>
-  </si>
-  <si>
-    <t>Text/Actor/90009</t>
-  </si>
-  <si>
-    <t>大块头</t>
-  </si>
-  <si>
-    <t>大块头，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role112</t>
-  </si>
-  <si>
-    <t>Model/Partner/90010</t>
-  </si>
-  <si>
-    <t>Text/AI/90010</t>
-  </si>
-  <si>
-    <t>Text/Actor/90010</t>
-  </si>
-  <si>
     <t>坐骑</t>
   </si>
   <si>
@@ -1187,168 +935,6 @@
   </si>
   <si>
     <t>Text/Actor/100002</t>
-  </si>
-  <si>
-    <t>汗血宝马</t>
-  </si>
-  <si>
-    <t>汗血宝马，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role115</t>
-  </si>
-  <si>
-    <t>Model/Mount/100003</t>
-  </si>
-  <si>
-    <t>Text/AI/100003</t>
-  </si>
-  <si>
-    <t>Text/Actor/100003</t>
-  </si>
-  <si>
-    <t>熔岩马</t>
-  </si>
-  <si>
-    <t>熔岩马，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role116</t>
-  </si>
-  <si>
-    <t>Model/Mount/100004</t>
-  </si>
-  <si>
-    <t>Text/AI/100004</t>
-  </si>
-  <si>
-    <t>Text/Actor/100004</t>
-  </si>
-  <si>
-    <t>草泥马</t>
-  </si>
-  <si>
-    <t>草泥马，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role117</t>
-  </si>
-  <si>
-    <t>Model/Mount/100005</t>
-  </si>
-  <si>
-    <t>Text/AI/100005</t>
-  </si>
-  <si>
-    <t>Text/Actor/100005</t>
-  </si>
-  <si>
-    <t>霜牙巨象</t>
-  </si>
-  <si>
-    <t>霜牙巨象，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role118</t>
-  </si>
-  <si>
-    <t>Model/Mount/100006</t>
-  </si>
-  <si>
-    <t>Text/AI/100006</t>
-  </si>
-  <si>
-    <t>Text/Actor/100006</t>
-  </si>
-  <si>
-    <t>宝石猎豹</t>
-  </si>
-  <si>
-    <t>宝石猎豹，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role119</t>
-  </si>
-  <si>
-    <t>Model/Mount/100007</t>
-  </si>
-  <si>
-    <t>Text/AI/100007</t>
-  </si>
-  <si>
-    <t>Text/Actor/100007</t>
-  </si>
-  <si>
-    <t>巨头狮子</t>
-  </si>
-  <si>
-    <t>巨头狮子，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role120</t>
-  </si>
-  <si>
-    <t>Model/Mount/100008</t>
-  </si>
-  <si>
-    <t>Text/AI/100008</t>
-  </si>
-  <si>
-    <t>Text/Actor/100008</t>
-  </si>
-  <si>
-    <t>装甲</t>
-  </si>
-  <si>
-    <t>装甲，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role121</t>
-  </si>
-  <si>
-    <t>Model/Mount/100009</t>
-  </si>
-  <si>
-    <t>Text/AI/100009</t>
-  </si>
-  <si>
-    <t>Text/Actor/100009</t>
-  </si>
-  <si>
-    <t>暗刃豹</t>
-  </si>
-  <si>
-    <t>暗刃豹，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role122</t>
-  </si>
-  <si>
-    <t>Model/Mount/100010</t>
-  </si>
-  <si>
-    <t>Text/AI/100010</t>
-  </si>
-  <si>
-    <t>Text/Actor/100010</t>
-  </si>
-  <si>
-    <t>灰色幽狼</t>
-  </si>
-  <si>
-    <t>灰色幽狼，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
-    <t>Sound/Voice/Avatar/Role123</t>
-  </si>
-  <si>
-    <t>Model/Mount/100011</t>
-  </si>
-  <si>
-    <t>Text/AI/100011</t>
-  </si>
-  <si>
-    <t>Text/Actor/100011</t>
   </si>
 </sst>
 </file>
@@ -1804,10 +1390,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AL69"/>
+  <dimension ref="A1:AL46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19:T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25"/>
@@ -2417,10 +2003,10 @@
         <v>90</v>
       </c>
       <c r="AG6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI6">
         <v>10</v>
@@ -3672,7 +3258,7 @@
         <v>88</v>
       </c>
       <c r="T19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="U19">
         <v>575</v>
@@ -3788,7 +3374,7 @@
         <v>88</v>
       </c>
       <c r="T20">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="U20">
         <v>765</v>
@@ -3904,7 +3490,7 @@
         <v>88</v>
       </c>
       <c r="T21">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="U21">
         <v>955</v>
@@ -4020,7 +3606,7 @@
         <v>88</v>
       </c>
       <c r="T22">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="U22">
         <v>1050</v>
@@ -4136,7 +3722,7 @@
         <v>88</v>
       </c>
       <c r="T23">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="U23">
         <v>1145</v>
@@ -4252,7 +3838,7 @@
         <v>88</v>
       </c>
       <c r="T24">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="U24">
         <v>1240</v>
@@ -4368,7 +3954,7 @@
         <v>88</v>
       </c>
       <c r="T25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U25">
         <v>2000</v>
@@ -5603,146 +5189,39 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
-      <c r="A38">
-        <v>80005</v>
-      </c>
-      <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="38" spans="1:17">
+      <c r="A38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38">
-        <v>902</v>
-      </c>
-      <c r="F38" t="s">
-        <v>264</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>3</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>5</v>
-      </c>
-      <c r="M38">
-        <v>6.25</v>
-      </c>
-      <c r="N38">
-        <v>5</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R38">
-        <v>1</v>
-      </c>
-      <c r="S38" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>540</v>
-      </c>
-      <c r="V38">
-        <v>38</v>
-      </c>
-      <c r="W38">
-        <v>14</v>
-      </c>
-      <c r="X38">
-        <v>5</v>
-      </c>
-      <c r="Y38">
-        <v>50</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>265</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>266</v>
-      </c>
-      <c r="AG38">
-        <v>2</v>
-      </c>
-      <c r="AH38">
-        <v>6</v>
-      </c>
-      <c r="AI38">
-        <v>10</v>
-      </c>
-      <c r="AJ38">
-        <v>0.2</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>268</v>
-      </c>
+      <c r="Q38" s="6"/>
     </row>
     <row r="39" spans="1:38">
       <c r="A39">
-        <v>80006</v>
+        <v>90001</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D39" t="s">
         <v>116</v>
       </c>
       <c r="E39">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F39" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -5781,13 +5260,13 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>545</v>
+        <v>585</v>
       </c>
       <c r="V39">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="W39">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="X39">
         <v>5</v>
@@ -5811,10 +5290,10 @@
         <v>0</v>
       </c>
       <c r="AE39" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AF39" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AG39">
         <v>2</v>
@@ -5829,36 +5308,36 @@
         <v>0.2</v>
       </c>
       <c r="AK39" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AL39" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:38">
       <c r="A40">
-        <v>80007</v>
+        <v>90002</v>
       </c>
       <c r="B40" t="s">
         <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D40" t="s">
         <v>116</v>
       </c>
       <c r="E40">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F40" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -5897,13 +5376,13 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="V40">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="W40">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="X40">
         <v>5</v>
@@ -5927,10 +5406,10 @@
         <v>0</v>
       </c>
       <c r="AE40" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AF40" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AG40">
         <v>2</v>
@@ -5945,36 +5424,36 @@
         <v>0.2</v>
       </c>
       <c r="AK40" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AL40" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:38">
       <c r="A41">
-        <v>80008</v>
+        <v>90003</v>
       </c>
       <c r="B41" t="s">
         <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D41" t="s">
         <v>116</v>
       </c>
       <c r="E41">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F41" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -6013,13 +5492,13 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>555</v>
+        <v>595</v>
       </c>
       <c r="V41">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="W41">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="X41">
         <v>5</v>
@@ -6043,10 +5522,10 @@
         <v>0</v>
       </c>
       <c r="AE41" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AF41" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AG41">
         <v>2</v>
@@ -6061,36 +5540,36 @@
         <v>0.2</v>
       </c>
       <c r="AK41" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AL41" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:38">
       <c r="A42">
-        <v>80009</v>
+        <v>90004</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D42" t="s">
         <v>116</v>
       </c>
       <c r="E42">
-        <v>906</v>
+        <v>923</v>
       </c>
       <c r="F42" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -6129,13 +5608,13 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="V42">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="W42">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="X42">
         <v>5</v>
@@ -6159,10 +5638,10 @@
         <v>0</v>
       </c>
       <c r="AE42" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AF42" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AG42">
         <v>2</v>
@@ -6177,36 +5656,36 @@
         <v>0.2</v>
       </c>
       <c r="AK42" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AL42" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:38">
       <c r="A43">
-        <v>80010</v>
+        <v>90005</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D43" t="s">
         <v>116</v>
       </c>
       <c r="E43">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F43" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -6245,13 +5724,13 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="V43">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="W43">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="X43">
         <v>5</v>
@@ -6275,10 +5754,10 @@
         <v>0</v>
       </c>
       <c r="AE43" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AF43" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AG43">
         <v>2</v>
@@ -6293,152 +5772,45 @@
         <v>0.2</v>
       </c>
       <c r="AK43" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AL43" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
-      <c r="A44">
-        <v>80011</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" t="s">
-        <v>299</v>
-      </c>
-      <c r="D44" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44">
-        <v>908</v>
-      </c>
-      <c r="F44" t="s">
-        <v>300</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>3</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>3</v>
-      </c>
-      <c r="M44">
-        <v>6.25</v>
-      </c>
-      <c r="N44">
-        <v>5</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R44">
-        <v>1</v>
-      </c>
-      <c r="S44" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>570</v>
-      </c>
-      <c r="V44">
-        <v>50</v>
-      </c>
-      <c r="W44">
-        <v>20</v>
-      </c>
-      <c r="X44">
-        <v>5</v>
-      </c>
-      <c r="Y44">
-        <v>50</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>302</v>
-      </c>
-      <c r="AG44">
-        <v>2</v>
-      </c>
-      <c r="AH44">
-        <v>6</v>
-      </c>
-      <c r="AI44">
-        <v>10</v>
-      </c>
-      <c r="AJ44">
-        <v>0.2</v>
-      </c>
-      <c r="AK44" t="s">
-        <v>303</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>304</v>
-      </c>
+    <row r="44" spans="1:17">
+      <c r="A44" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q44" s="6"/>
     </row>
     <row r="45" spans="1:38">
       <c r="A45">
-        <v>80012</v>
+        <v>100001</v>
       </c>
       <c r="B45" t="s">
         <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D45" t="s">
         <v>116</v>
       </c>
       <c r="E45">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="F45" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -6450,13 +5822,13 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M45">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N45">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -6477,19 +5849,19 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>575</v>
+        <v>1000</v>
       </c>
       <c r="V45">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="W45">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="X45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -6507,10 +5879,10 @@
         <v>0</v>
       </c>
       <c r="AE45" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="AF45" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AG45">
         <v>2</v>
@@ -6525,36 +5897,36 @@
         <v>0.2</v>
       </c>
       <c r="AK45" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="AL45" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:38">
       <c r="A46">
-        <v>80013</v>
+        <v>100002</v>
       </c>
       <c r="B46" t="s">
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D46" t="s">
         <v>116</v>
       </c>
       <c r="E46">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="F46" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -6569,10 +5941,10 @@
         <v>5</v>
       </c>
       <c r="M46">
-        <v>6.25</v>
+        <v>15</v>
       </c>
       <c r="N46">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -6584,7 +5956,7 @@
         <v>87</v>
       </c>
       <c r="R46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S46" s="7" t="s">
         <v>88</v>
@@ -6593,19 +5965,19 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="V46">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="W46">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -6623,10 +5995,10 @@
         <v>0</v>
       </c>
       <c r="AE46" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="AF46" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="AG46">
         <v>2</v>
@@ -6641,2464 +6013,10 @@
         <v>0.2</v>
       </c>
       <c r="AK46" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AL46" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q47" s="6"/>
-    </row>
-    <row r="48" spans="1:38">
-      <c r="A48">
-        <v>90001</v>
-      </c>
-      <c r="B48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" t="s">
-        <v>318</v>
-      </c>
-      <c r="D48" t="s">
-        <v>116</v>
-      </c>
-      <c r="E48">
-        <v>902</v>
-      </c>
-      <c r="F48" t="s">
-        <v>319</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>6</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>6.25</v>
-      </c>
-      <c r="N48">
-        <v>5</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R48">
-        <v>1</v>
-      </c>
-      <c r="S48" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>585</v>
-      </c>
-      <c r="V48">
-        <v>56</v>
-      </c>
-      <c r="W48">
-        <v>23</v>
-      </c>
-      <c r="X48">
-        <v>5</v>
-      </c>
-      <c r="Y48">
-        <v>50</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>320</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>321</v>
-      </c>
-      <c r="AG48">
-        <v>2</v>
-      </c>
-      <c r="AH48">
-        <v>6</v>
-      </c>
-      <c r="AI48">
-        <v>10</v>
-      </c>
-      <c r="AJ48">
-        <v>0.2</v>
-      </c>
-      <c r="AK48" t="s">
-        <v>322</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="49" spans="1:38">
-      <c r="A49">
-        <v>90002</v>
-      </c>
-      <c r="B49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" t="s">
-        <v>324</v>
-      </c>
-      <c r="D49" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49">
-        <v>903</v>
-      </c>
-      <c r="F49" t="s">
-        <v>325</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>6</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>2</v>
-      </c>
-      <c r="M49">
-        <v>6.25</v>
-      </c>
-      <c r="N49">
-        <v>5</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R49">
-        <v>1</v>
-      </c>
-      <c r="S49" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>590</v>
-      </c>
-      <c r="V49">
-        <v>58</v>
-      </c>
-      <c r="W49">
-        <v>24</v>
-      </c>
-      <c r="X49">
-        <v>5</v>
-      </c>
-      <c r="Y49">
-        <v>50</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>327</v>
-      </c>
-      <c r="AG49">
-        <v>2</v>
-      </c>
-      <c r="AH49">
-        <v>6</v>
-      </c>
-      <c r="AI49">
-        <v>10</v>
-      </c>
-      <c r="AJ49">
-        <v>0.2</v>
-      </c>
-      <c r="AK49" t="s">
-        <v>328</v>
-      </c>
-      <c r="AL49" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="50" spans="1:38">
-      <c r="A50">
-        <v>90003</v>
-      </c>
-      <c r="B50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" t="s">
-        <v>330</v>
-      </c>
-      <c r="D50" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50">
-        <v>907</v>
-      </c>
-      <c r="F50" t="s">
-        <v>331</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>6</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>3</v>
-      </c>
-      <c r="M50">
-        <v>6.25</v>
-      </c>
-      <c r="N50">
-        <v>5</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R50">
-        <v>1</v>
-      </c>
-      <c r="S50" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>595</v>
-      </c>
-      <c r="V50">
-        <v>60</v>
-      </c>
-      <c r="W50">
-        <v>25</v>
-      </c>
-      <c r="X50">
-        <v>5</v>
-      </c>
-      <c r="Y50">
-        <v>50</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>332</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>333</v>
-      </c>
-      <c r="AG50">
-        <v>2</v>
-      </c>
-      <c r="AH50">
-        <v>6</v>
-      </c>
-      <c r="AI50">
-        <v>10</v>
-      </c>
-      <c r="AJ50">
-        <v>0.2</v>
-      </c>
-      <c r="AK50" t="s">
-        <v>334</v>
-      </c>
-      <c r="AL50" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:38">
-      <c r="A51">
-        <v>90004</v>
-      </c>
-      <c r="B51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" t="s">
-        <v>336</v>
-      </c>
-      <c r="D51" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51">
-        <v>923</v>
-      </c>
-      <c r="F51" t="s">
-        <v>337</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>6</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>4</v>
-      </c>
-      <c r="M51">
-        <v>6.25</v>
-      </c>
-      <c r="N51">
-        <v>5</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R51">
-        <v>1</v>
-      </c>
-      <c r="S51" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>600</v>
-      </c>
-      <c r="V51">
-        <v>62</v>
-      </c>
-      <c r="W51">
-        <v>26</v>
-      </c>
-      <c r="X51">
-        <v>5</v>
-      </c>
-      <c r="Y51">
-        <v>50</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>338</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>339</v>
-      </c>
-      <c r="AG51">
-        <v>2</v>
-      </c>
-      <c r="AH51">
-        <v>6</v>
-      </c>
-      <c r="AI51">
-        <v>10</v>
-      </c>
-      <c r="AJ51">
-        <v>0.2</v>
-      </c>
-      <c r="AK51" t="s">
-        <v>340</v>
-      </c>
-      <c r="AL51" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="52" spans="1:38">
-      <c r="A52">
-        <v>90005</v>
-      </c>
-      <c r="B52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" t="s">
-        <v>342</v>
-      </c>
-      <c r="D52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52">
-        <v>906</v>
-      </c>
-      <c r="F52" t="s">
-        <v>343</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>6</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>5</v>
-      </c>
-      <c r="M52">
-        <v>6.25</v>
-      </c>
-      <c r="N52">
-        <v>5</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R52">
-        <v>1</v>
-      </c>
-      <c r="S52" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>605</v>
-      </c>
-      <c r="V52">
-        <v>64</v>
-      </c>
-      <c r="W52">
-        <v>27</v>
-      </c>
-      <c r="X52">
-        <v>5</v>
-      </c>
-      <c r="Y52">
-        <v>50</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>345</v>
-      </c>
-      <c r="AG52">
-        <v>2</v>
-      </c>
-      <c r="AH52">
-        <v>6</v>
-      </c>
-      <c r="AI52">
-        <v>10</v>
-      </c>
-      <c r="AJ52">
-        <v>0.2</v>
-      </c>
-      <c r="AK52" t="s">
-        <v>346</v>
-      </c>
-      <c r="AL52" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="53" spans="1:38">
-      <c r="A53">
-        <v>90006</v>
-      </c>
-      <c r="B53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" t="s">
-        <v>348</v>
-      </c>
-      <c r="D53" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53">
-        <v>911</v>
-      </c>
-      <c r="F53" t="s">
-        <v>349</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>6</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53">
-        <v>6.25</v>
-      </c>
-      <c r="N53">
-        <v>5</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R53">
-        <v>1</v>
-      </c>
-      <c r="S53" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>610</v>
-      </c>
-      <c r="V53">
-        <v>66</v>
-      </c>
-      <c r="W53">
-        <v>28</v>
-      </c>
-      <c r="X53">
-        <v>5</v>
-      </c>
-      <c r="Y53">
-        <v>50</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>350</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>351</v>
-      </c>
-      <c r="AG53">
-        <v>2</v>
-      </c>
-      <c r="AH53">
-        <v>6</v>
-      </c>
-      <c r="AI53">
-        <v>10</v>
-      </c>
-      <c r="AJ53">
-        <v>0.2</v>
-      </c>
-      <c r="AK53" t="s">
-        <v>352</v>
-      </c>
-      <c r="AL53" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="54" spans="1:38">
-      <c r="A54">
-        <v>90007</v>
-      </c>
-      <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" t="s">
-        <v>354</v>
-      </c>
-      <c r="D54" t="s">
-        <v>116</v>
-      </c>
-      <c r="E54">
-        <v>918</v>
-      </c>
-      <c r="F54" t="s">
-        <v>355</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>6</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>2</v>
-      </c>
-      <c r="M54">
-        <v>6.25</v>
-      </c>
-      <c r="N54">
-        <v>5</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R54">
-        <v>1</v>
-      </c>
-      <c r="S54" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>615</v>
-      </c>
-      <c r="V54">
-        <v>68</v>
-      </c>
-      <c r="W54">
-        <v>29</v>
-      </c>
-      <c r="X54">
-        <v>5</v>
-      </c>
-      <c r="Y54">
-        <v>50</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>356</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>357</v>
-      </c>
-      <c r="AG54">
-        <v>2</v>
-      </c>
-      <c r="AH54">
-        <v>6</v>
-      </c>
-      <c r="AI54">
-        <v>10</v>
-      </c>
-      <c r="AJ54">
-        <v>0.2</v>
-      </c>
-      <c r="AK54" t="s">
-        <v>358</v>
-      </c>
-      <c r="AL54" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="55" spans="1:38">
-      <c r="A55">
-        <v>90008</v>
-      </c>
-      <c r="B55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" t="s">
-        <v>360</v>
-      </c>
-      <c r="D55" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55">
-        <v>919</v>
-      </c>
-      <c r="F55" t="s">
-        <v>361</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>6</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>3</v>
-      </c>
-      <c r="M55">
-        <v>6.25</v>
-      </c>
-      <c r="N55">
-        <v>5</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-      <c r="S55" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>620</v>
-      </c>
-      <c r="V55">
-        <v>70</v>
-      </c>
-      <c r="W55">
-        <v>30</v>
-      </c>
-      <c r="X55">
-        <v>5</v>
-      </c>
-      <c r="Y55">
-        <v>50</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF55" t="s">
-        <v>363</v>
-      </c>
-      <c r="AG55">
-        <v>2</v>
-      </c>
-      <c r="AH55">
-        <v>6</v>
-      </c>
-      <c r="AI55">
-        <v>10</v>
-      </c>
-      <c r="AJ55">
-        <v>0.2</v>
-      </c>
-      <c r="AK55" t="s">
-        <v>364</v>
-      </c>
-      <c r="AL55" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="56" spans="1:38">
-      <c r="A56">
-        <v>90009</v>
-      </c>
-      <c r="B56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" t="s">
-        <v>366</v>
-      </c>
-      <c r="D56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56">
-        <v>920</v>
-      </c>
-      <c r="F56" t="s">
-        <v>367</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>6</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>4</v>
-      </c>
-      <c r="M56">
-        <v>6.25</v>
-      </c>
-      <c r="N56">
-        <v>5</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R56">
-        <v>1</v>
-      </c>
-      <c r="S56" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>625</v>
-      </c>
-      <c r="V56">
-        <v>72</v>
-      </c>
-      <c r="W56">
-        <v>31</v>
-      </c>
-      <c r="X56">
-        <v>5</v>
-      </c>
-      <c r="Y56">
-        <v>50</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
-      <c r="AC56">
-        <v>0</v>
-      </c>
-      <c r="AD56">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG56">
-        <v>2</v>
-      </c>
-      <c r="AH56">
-        <v>6</v>
-      </c>
-      <c r="AI56">
-        <v>10</v>
-      </c>
-      <c r="AJ56">
-        <v>0.2</v>
-      </c>
-      <c r="AK56" t="s">
-        <v>370</v>
-      </c>
-      <c r="AL56" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="57" spans="1:38">
-      <c r="A57">
-        <v>90010</v>
-      </c>
-      <c r="B57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" t="s">
-        <v>372</v>
-      </c>
-      <c r="D57" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57">
-        <v>915</v>
-      </c>
-      <c r="F57" t="s">
-        <v>373</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>6</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>5</v>
-      </c>
-      <c r="M57">
-        <v>6.25</v>
-      </c>
-      <c r="N57">
-        <v>5</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R57">
-        <v>1</v>
-      </c>
-      <c r="S57" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>630</v>
-      </c>
-      <c r="V57">
-        <v>74</v>
-      </c>
-      <c r="W57">
-        <v>32</v>
-      </c>
-      <c r="X57">
-        <v>5</v>
-      </c>
-      <c r="Y57">
-        <v>50</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>374</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>375</v>
-      </c>
-      <c r="AG57">
-        <v>2</v>
-      </c>
-      <c r="AH57">
-        <v>6</v>
-      </c>
-      <c r="AI57">
-        <v>10</v>
-      </c>
-      <c r="AJ57">
-        <v>0.2</v>
-      </c>
-      <c r="AK57" t="s">
-        <v>376</v>
-      </c>
-      <c r="AL57" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q58" s="6"/>
-    </row>
-    <row r="59" spans="1:38">
-      <c r="A59">
-        <v>100001</v>
-      </c>
-      <c r="B59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" t="s">
-        <v>379</v>
-      </c>
-      <c r="D59" t="s">
-        <v>116</v>
-      </c>
-      <c r="E59">
-        <v>902</v>
-      </c>
-      <c r="F59" t="s">
-        <v>380</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>4</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>5</v>
-      </c>
-      <c r="M59">
-        <v>15</v>
-      </c>
-      <c r="N59">
-        <v>12</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R59">
-        <v>1</v>
-      </c>
-      <c r="S59" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>1000</v>
-      </c>
-      <c r="V59">
-        <v>100</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <v>0</v>
-      </c>
-      <c r="AD59">
-        <v>0</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>381</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>382</v>
-      </c>
-      <c r="AG59">
-        <v>2</v>
-      </c>
-      <c r="AH59">
-        <v>6</v>
-      </c>
-      <c r="AI59">
-        <v>10</v>
-      </c>
-      <c r="AJ59">
-        <v>0.2</v>
-      </c>
-      <c r="AK59" t="s">
-        <v>383</v>
-      </c>
-      <c r="AL59" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="60" spans="1:38">
-      <c r="A60">
-        <v>100002</v>
-      </c>
-      <c r="B60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D60" t="s">
-        <v>116</v>
-      </c>
-      <c r="E60">
-        <v>903</v>
-      </c>
-      <c r="F60" t="s">
-        <v>386</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>4</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>5</v>
-      </c>
-      <c r="M60">
-        <v>15</v>
-      </c>
-      <c r="N60">
-        <v>12</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R60">
-        <v>2</v>
-      </c>
-      <c r="S60" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>1000</v>
-      </c>
-      <c r="V60">
-        <v>100</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>387</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>388</v>
-      </c>
-      <c r="AG60">
-        <v>2</v>
-      </c>
-      <c r="AH60">
-        <v>6</v>
-      </c>
-      <c r="AI60">
-        <v>10</v>
-      </c>
-      <c r="AJ60">
-        <v>0.2</v>
-      </c>
-      <c r="AK60" t="s">
-        <v>389</v>
-      </c>
-      <c r="AL60" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="61" spans="1:38">
-      <c r="A61">
-        <v>100003</v>
-      </c>
-      <c r="B61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" t="s">
-        <v>391</v>
-      </c>
-      <c r="D61" t="s">
-        <v>116</v>
-      </c>
-      <c r="E61">
-        <v>907</v>
-      </c>
-      <c r="F61" t="s">
-        <v>392</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>4</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>4</v>
-      </c>
-      <c r="M61">
-        <v>15</v>
-      </c>
-      <c r="N61">
-        <v>12</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R61">
-        <v>2</v>
-      </c>
-      <c r="S61" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>1000</v>
-      </c>
-      <c r="V61">
-        <v>100</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
-      <c r="AC61">
-        <v>0</v>
-      </c>
-      <c r="AD61">
-        <v>0</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>393</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>394</v>
-      </c>
-      <c r="AG61">
-        <v>2</v>
-      </c>
-      <c r="AH61">
-        <v>6</v>
-      </c>
-      <c r="AI61">
-        <v>10</v>
-      </c>
-      <c r="AJ61">
-        <v>0.2</v>
-      </c>
-      <c r="AK61" t="s">
-        <v>395</v>
-      </c>
-      <c r="AL61" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="62" spans="1:38">
-      <c r="A62">
-        <v>100004</v>
-      </c>
-      <c r="B62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" t="s">
-        <v>397</v>
-      </c>
-      <c r="D62" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62">
-        <v>923</v>
-      </c>
-      <c r="F62" t="s">
-        <v>398</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>4</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>4</v>
-      </c>
-      <c r="M62">
-        <v>15</v>
-      </c>
-      <c r="N62">
-        <v>12</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R62">
-        <v>2</v>
-      </c>
-      <c r="S62" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>1000</v>
-      </c>
-      <c r="V62">
-        <v>100</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="Y62">
-        <v>0</v>
-      </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
-      <c r="AA62">
-        <v>0</v>
-      </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>399</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>400</v>
-      </c>
-      <c r="AG62">
-        <v>2</v>
-      </c>
-      <c r="AH62">
-        <v>6</v>
-      </c>
-      <c r="AI62">
-        <v>10</v>
-      </c>
-      <c r="AJ62">
-        <v>0.2</v>
-      </c>
-      <c r="AK62" t="s">
-        <v>401</v>
-      </c>
-      <c r="AL62" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="63" spans="1:38">
-      <c r="A63">
-        <v>100005</v>
-      </c>
-      <c r="B63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" t="s">
-        <v>403</v>
-      </c>
-      <c r="D63" t="s">
-        <v>116</v>
-      </c>
-      <c r="E63">
-        <v>906</v>
-      </c>
-      <c r="F63" t="s">
-        <v>404</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>4</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>3</v>
-      </c>
-      <c r="M63">
-        <v>15</v>
-      </c>
-      <c r="N63">
-        <v>12</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R63">
-        <v>2</v>
-      </c>
-      <c r="S63" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>1000</v>
-      </c>
-      <c r="V63">
-        <v>100</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>405</v>
-      </c>
-      <c r="AF63" t="s">
-        <v>406</v>
-      </c>
-      <c r="AG63">
-        <v>2</v>
-      </c>
-      <c r="AH63">
-        <v>6</v>
-      </c>
-      <c r="AI63">
-        <v>10</v>
-      </c>
-      <c r="AJ63">
-        <v>0.2</v>
-      </c>
-      <c r="AK63" t="s">
-        <v>407</v>
-      </c>
-      <c r="AL63" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="64" spans="1:38">
-      <c r="A64">
-        <v>100006</v>
-      </c>
-      <c r="B64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" t="s">
-        <v>409</v>
-      </c>
-      <c r="D64" t="s">
-        <v>116</v>
-      </c>
-      <c r="E64">
-        <v>911</v>
-      </c>
-      <c r="F64" t="s">
-        <v>410</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>4</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>4</v>
-      </c>
-      <c r="M64">
-        <v>15</v>
-      </c>
-      <c r="N64">
-        <v>12</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R64">
-        <v>2</v>
-      </c>
-      <c r="S64" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>1000</v>
-      </c>
-      <c r="V64">
-        <v>100</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64">
-        <v>0</v>
-      </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>411</v>
-      </c>
-      <c r="AF64" t="s">
-        <v>412</v>
-      </c>
-      <c r="AG64">
-        <v>2</v>
-      </c>
-      <c r="AH64">
-        <v>6</v>
-      </c>
-      <c r="AI64">
-        <v>10</v>
-      </c>
-      <c r="AJ64">
-        <v>0.2</v>
-      </c>
-      <c r="AK64" t="s">
-        <v>413</v>
-      </c>
-      <c r="AL64" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="65" spans="1:38">
-      <c r="A65">
-        <v>100007</v>
-      </c>
-      <c r="B65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" t="s">
-        <v>415</v>
-      </c>
-      <c r="D65" t="s">
-        <v>116</v>
-      </c>
-      <c r="E65">
-        <v>918</v>
-      </c>
-      <c r="F65" t="s">
-        <v>416</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>4</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>3</v>
-      </c>
-      <c r="M65">
-        <v>15</v>
-      </c>
-      <c r="N65">
-        <v>12</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R65">
-        <v>2</v>
-      </c>
-      <c r="S65" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>1000</v>
-      </c>
-      <c r="V65">
-        <v>100</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF65" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG65">
-        <v>2</v>
-      </c>
-      <c r="AH65">
-        <v>6</v>
-      </c>
-      <c r="AI65">
-        <v>10</v>
-      </c>
-      <c r="AJ65">
-        <v>0.2</v>
-      </c>
-      <c r="AK65" t="s">
-        <v>419</v>
-      </c>
-      <c r="AL65" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="66" spans="1:38">
-      <c r="A66">
-        <v>100008</v>
-      </c>
-      <c r="B66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" t="s">
-        <v>421</v>
-      </c>
-      <c r="D66" t="s">
-        <v>116</v>
-      </c>
-      <c r="E66">
-        <v>919</v>
-      </c>
-      <c r="F66" t="s">
-        <v>422</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>4</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>4</v>
-      </c>
-      <c r="M66">
-        <v>15</v>
-      </c>
-      <c r="N66">
-        <v>12</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R66">
-        <v>3</v>
-      </c>
-      <c r="S66" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <v>1000</v>
-      </c>
-      <c r="V66">
-        <v>100</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
-      <c r="AA66">
-        <v>0</v>
-      </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <v>0</v>
-      </c>
-      <c r="AD66">
-        <v>0</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>423</v>
-      </c>
-      <c r="AF66" t="s">
-        <v>424</v>
-      </c>
-      <c r="AG66">
-        <v>2</v>
-      </c>
-      <c r="AH66">
-        <v>6</v>
-      </c>
-      <c r="AI66">
-        <v>10</v>
-      </c>
-      <c r="AJ66">
-        <v>0.2</v>
-      </c>
-      <c r="AK66" t="s">
-        <v>425</v>
-      </c>
-      <c r="AL66" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="67" spans="1:38">
-      <c r="A67">
-        <v>100009</v>
-      </c>
-      <c r="B67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" t="s">
-        <v>427</v>
-      </c>
-      <c r="D67" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67">
-        <v>920</v>
-      </c>
-      <c r="F67" t="s">
-        <v>428</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>4</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>3</v>
-      </c>
-      <c r="M67">
-        <v>15</v>
-      </c>
-      <c r="N67">
-        <v>12</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R67">
-        <v>4</v>
-      </c>
-      <c r="S67" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T67">
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <v>1000</v>
-      </c>
-      <c r="V67">
-        <v>100</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <v>0</v>
-      </c>
-      <c r="AD67">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>429</v>
-      </c>
-      <c r="AF67" t="s">
-        <v>430</v>
-      </c>
-      <c r="AG67">
-        <v>2</v>
-      </c>
-      <c r="AH67">
-        <v>6</v>
-      </c>
-      <c r="AI67">
-        <v>10</v>
-      </c>
-      <c r="AJ67">
-        <v>0.2</v>
-      </c>
-      <c r="AK67" t="s">
-        <v>431</v>
-      </c>
-      <c r="AL67" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="68" spans="1:38">
-      <c r="A68">
-        <v>100010</v>
-      </c>
-      <c r="B68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" t="s">
-        <v>433</v>
-      </c>
-      <c r="D68" t="s">
-        <v>116</v>
-      </c>
-      <c r="E68">
-        <v>915</v>
-      </c>
-      <c r="F68" t="s">
-        <v>434</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>4</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>3</v>
-      </c>
-      <c r="M68">
-        <v>15</v>
-      </c>
-      <c r="N68">
-        <v>12</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R68">
-        <v>2</v>
-      </c>
-      <c r="S68" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>1000</v>
-      </c>
-      <c r="V68">
-        <v>100</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-      <c r="Z68">
-        <v>0</v>
-      </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
-      <c r="AC68">
-        <v>0</v>
-      </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>435</v>
-      </c>
-      <c r="AF68" t="s">
-        <v>436</v>
-      </c>
-      <c r="AG68">
-        <v>2</v>
-      </c>
-      <c r="AH68">
-        <v>6</v>
-      </c>
-      <c r="AI68">
-        <v>10</v>
-      </c>
-      <c r="AJ68">
-        <v>0.2</v>
-      </c>
-      <c r="AK68" t="s">
-        <v>437</v>
-      </c>
-      <c r="AL68" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="69" spans="1:38">
-      <c r="A69">
-        <v>100011</v>
-      </c>
-      <c r="B69" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" t="s">
-        <v>439</v>
-      </c>
-      <c r="D69" t="s">
-        <v>116</v>
-      </c>
-      <c r="E69">
-        <v>921</v>
-      </c>
-      <c r="F69" t="s">
-        <v>440</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>4</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>2</v>
-      </c>
-      <c r="M69">
-        <v>15</v>
-      </c>
-      <c r="N69">
-        <v>12</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R69">
-        <v>2</v>
-      </c>
-      <c r="S69" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>1000</v>
-      </c>
-      <c r="V69">
-        <v>100</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
-      <c r="AA69">
-        <v>0</v>
-      </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
-      <c r="AC69">
-        <v>0</v>
-      </c>
-      <c r="AD69">
-        <v>0</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>441</v>
-      </c>
-      <c r="AF69" t="s">
-        <v>442</v>
-      </c>
-      <c r="AG69">
-        <v>2</v>
-      </c>
-      <c r="AH69">
-        <v>6</v>
-      </c>
-      <c r="AI69">
-        <v>10</v>
-      </c>
-      <c r="AJ69">
-        <v>0.2</v>
-      </c>
-      <c r="AK69" t="s">
-        <v>443</v>
-      </c>
-      <c r="AL69" t="s">
-        <v>444</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/Project/DataTable/Excel/角色实体配置表.xlsx
+++ b/Project/DataTable/Excel/角色实体配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13050"/>
+    <workbookView windowWidth="28710" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="角色配置表" sheetId="1" r:id="rId1"/>
@@ -942,10 +942,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1392,8 +1392,8 @@
   <sheetPr/>
   <dimension ref="A1:AL46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19:T25"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25"/>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <v>5</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="N9">
         <v>5</v>
@@ -2398,7 +2398,7 @@
         <v>117</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="N11">
         <v>5</v>
@@ -2514,7 +2514,7 @@
         <v>123</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="N12">
         <v>5</v>
@@ -2630,7 +2630,7 @@
         <v>129</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <v>5</v>
@@ -2746,7 +2746,7 @@
         <v>135</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="N14">
         <v>5</v>
@@ -2862,7 +2862,7 @@
         <v>141</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="N15">
         <v>5</v>
@@ -2978,7 +2978,7 @@
         <v>147</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="N16">
         <v>5</v>
@@ -3094,7 +3094,7 @@
         <v>153</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="N17">
         <v>5</v>
@@ -3335,7 +3335,7 @@
         <v>166</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -3451,7 +3451,7 @@
         <v>172</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -3567,7 +3567,7 @@
         <v>178</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -3683,7 +3683,7 @@
         <v>184</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -3799,7 +3799,7 @@
         <v>190</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -3915,7 +3915,7 @@
         <v>196</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -3957,10 +3957,10 @@
         <v>56</v>
       </c>
       <c r="U25">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="V25">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="W25">
         <v>45</v>
@@ -4763,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.25</v>
+        <v>4</v>
       </c>
       <c r="N34">
         <v>5</v>
@@ -4879,7 +4879,7 @@
         <v>2</v>
       </c>
       <c r="M35">
-        <v>6.25</v>
+        <v>4</v>
       </c>
       <c r="N35">
         <v>5</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="M36">
-        <v>6.25</v>
+        <v>4</v>
       </c>
       <c r="N36">
         <v>5</v>
@@ -5111,7 +5111,7 @@
         <v>4</v>
       </c>
       <c r="M37">
-        <v>6.25</v>
+        <v>4</v>
       </c>
       <c r="N37">
         <v>5</v>
@@ -5218,7 +5218,7 @@
         <v>265</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H39">
         <v>6</v>
@@ -5236,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="M39">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="N39">
         <v>5</v>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>585</v>
+        <v>10000</v>
       </c>
       <c r="V39">
         <v>56</v>
@@ -5334,7 +5334,7 @@
         <v>271</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H40">
         <v>6</v>
@@ -5352,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="M40">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="N40">
         <v>5</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>590</v>
+        <v>10000</v>
       </c>
       <c r="V40">
         <v>58</v>
@@ -5450,7 +5450,7 @@
         <v>277</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H41">
         <v>6</v>
@@ -5468,7 +5468,7 @@
         <v>3</v>
       </c>
       <c r="M41">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="N41">
         <v>5</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>595</v>
+        <v>10000</v>
       </c>
       <c r="V41">
         <v>60</v>
@@ -5566,7 +5566,7 @@
         <v>283</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H42">
         <v>6</v>
@@ -5584,7 +5584,7 @@
         <v>4</v>
       </c>
       <c r="M42">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="N42">
         <v>5</v>
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>600</v>
+        <v>10000</v>
       </c>
       <c r="V42">
         <v>62</v>
@@ -5682,7 +5682,7 @@
         <v>289</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H43">
         <v>6</v>
@@ -5700,7 +5700,7 @@
         <v>5</v>
       </c>
       <c r="M43">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="N43">
         <v>5</v>
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>605</v>
+        <v>10000</v>
       </c>
       <c r="V43">
         <v>64</v>
@@ -5825,7 +5825,7 @@
         <v>5</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N45">
         <v>12</v>
@@ -5941,7 +5941,7 @@
         <v>5</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N46">
         <v>12</v>

--- a/Project/DataTable/Excel/角色实体配置表.xlsx
+++ b/Project/DataTable/Excel/角色实体配置表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331">
   <si>
     <t>Id</t>
   </si>
@@ -511,6 +511,21 @@
     <t>Text/Actor/50001</t>
   </si>
   <si>
+    <t>变异亡灵(精英)</t>
+  </si>
+  <si>
+    <t>Sound/Voice/Avatar/50002</t>
+  </si>
+  <si>
+    <t>Model/Monster/50002</t>
+  </si>
+  <si>
+    <t>Text/AI/50002</t>
+  </si>
+  <si>
+    <t>Text/Actor/50002</t>
+  </si>
+  <si>
     <t>巨型恶魔</t>
   </si>
   <si>
@@ -529,6 +544,18 @@
     <t>Text/Actor/50003</t>
   </si>
   <si>
+    <t>巨型恶魔(精英)</t>
+  </si>
+  <si>
+    <t>Model/Monster/50004</t>
+  </si>
+  <si>
+    <t>Text/AI/50004</t>
+  </si>
+  <si>
+    <t>Text/Actor/50004</t>
+  </si>
+  <si>
     <t>变异蝙蝠</t>
   </si>
   <si>
@@ -601,7 +628,52 @@
     <t>Text/Actor/50008</t>
   </si>
   <si>
-    <t>亡灵勇士变身</t>
+    <t>变异蝙蝠(精英)</t>
+  </si>
+  <si>
+    <t>Model/Monster/50009</t>
+  </si>
+  <si>
+    <t>Text/AI/50009</t>
+  </si>
+  <si>
+    <t>Text/Actor/50009</t>
+  </si>
+  <si>
+    <t>缝合怪(精英)</t>
+  </si>
+  <si>
+    <t>Model/Monster/50010</t>
+  </si>
+  <si>
+    <t>Text/AI/50010</t>
+  </si>
+  <si>
+    <t>Text/Actor/50010</t>
+  </si>
+  <si>
+    <t>灰烬教徒(精英)</t>
+  </si>
+  <si>
+    <t>Model/Monster/50011</t>
+  </si>
+  <si>
+    <t>Text/AI/50011</t>
+  </si>
+  <si>
+    <t>Text/Actor/50011</t>
+  </si>
+  <si>
+    <t>Model/Monster/50012</t>
+  </si>
+  <si>
+    <t>Text/AI/50012</t>
+  </si>
+  <si>
+    <t>Text/Actor/50012</t>
+  </si>
+  <si>
+    <t>亡灵勇士(BOSS)</t>
   </si>
   <si>
     <t>亡灵勇士变身，这里是最强的存在，曾经打遍天下无敌手</t>
@@ -1390,17 +1462,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AL46"/>
+  <dimension ref="A1:AL52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="9.375" customWidth="1"/>
     <col min="5" max="5" width="5.375" customWidth="1"/>
     <col min="6" max="6" width="56" customWidth="1"/>
@@ -3315,9 +3387,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" customFormat="1" spans="1:38">
       <c r="A20">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B20" t="s">
         <v>83</v>
@@ -3329,10 +3401,10 @@
         <v>116</v>
       </c>
       <c r="E20">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -3341,7 +3413,7 @@
         <v>2</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -3374,19 +3446,19 @@
         <v>88</v>
       </c>
       <c r="T20">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="U20">
-        <v>765</v>
+        <v>1400</v>
       </c>
       <c r="V20">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="W20">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="X20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y20">
         <v>50</v>
@@ -3407,16 +3479,16 @@
         <v>2</v>
       </c>
       <c r="AE20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF20" t="s">
         <v>167</v>
       </c>
-      <c r="AF20" t="s">
-        <v>168</v>
-      </c>
       <c r="AG20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI20">
         <v>15</v>
@@ -3425,30 +3497,30 @@
         <v>0.2</v>
       </c>
       <c r="AK20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL20" t="s">
         <v>169</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:38">
       <c r="A21">
-        <v>50005</v>
+        <v>50003</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
         <v>116</v>
       </c>
       <c r="E21">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -3457,7 +3529,7 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -3469,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N21">
         <v>2.5</v>
@@ -3490,16 +3562,16 @@
         <v>88</v>
       </c>
       <c r="T21">
+        <v>51</v>
+      </c>
+      <c r="U21">
+        <v>765</v>
+      </c>
+      <c r="V21">
         <v>52</v>
       </c>
-      <c r="U21">
-        <v>955</v>
-      </c>
-      <c r="V21">
-        <v>64</v>
-      </c>
       <c r="W21">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="X21">
         <v>5</v>
@@ -3523,16 +3595,16 @@
         <v>2</v>
       </c>
       <c r="AE21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF21" t="s">
         <v>173</v>
       </c>
-      <c r="AF21" t="s">
-        <v>174</v>
-      </c>
       <c r="AG21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI21">
         <v>15</v>
@@ -3541,30 +3613,30 @@
         <v>0.2</v>
       </c>
       <c r="AK21" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL21" t="s">
         <v>175</v>
       </c>
-      <c r="AL21" t="s">
-        <v>176</v>
-      </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" customFormat="1" spans="1:38">
       <c r="A22">
-        <v>50006</v>
+        <v>50004</v>
       </c>
       <c r="B22" t="s">
         <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D22" t="s">
         <v>116</v>
       </c>
       <c r="E22">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -3573,7 +3645,7 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -3585,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N22">
         <v>2.5</v>
@@ -3606,16 +3678,16 @@
         <v>88</v>
       </c>
       <c r="T22">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="U22">
-        <v>1050</v>
+        <v>1500</v>
       </c>
       <c r="V22">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="W22">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="X22">
         <v>5</v>
@@ -3639,16 +3711,16 @@
         <v>2</v>
       </c>
       <c r="AE22" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AF22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AG22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI22">
         <v>15</v>
@@ -3657,30 +3729,30 @@
         <v>0.2</v>
       </c>
       <c r="AK22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AL22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:38">
       <c r="A23">
-        <v>50007</v>
+        <v>50005</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D23" t="s">
         <v>116</v>
       </c>
       <c r="E23">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -3689,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -3701,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N23">
         <v>2.5</v>
@@ -3722,16 +3794,16 @@
         <v>88</v>
       </c>
       <c r="T23">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U23">
-        <v>1145</v>
+        <v>955</v>
       </c>
       <c r="V23">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="W23">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="X23">
         <v>5</v>
@@ -3755,16 +3827,16 @@
         <v>2</v>
       </c>
       <c r="AE23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AF23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AG23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AH23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AI23">
         <v>15</v>
@@ -3773,30 +3845,30 @@
         <v>0.2</v>
       </c>
       <c r="AK23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AL23" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:38">
       <c r="A24">
-        <v>50008</v>
+        <v>50006</v>
       </c>
       <c r="B24" t="s">
         <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D24" t="s">
         <v>116</v>
       </c>
       <c r="E24">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G24">
         <v>6</v>
@@ -3805,19 +3877,19 @@
         <v>2</v>
       </c>
       <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N24">
         <v>2.5</v>
@@ -3838,16 +3910,16 @@
         <v>88</v>
       </c>
       <c r="T24">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U24">
-        <v>1240</v>
+        <v>1050</v>
       </c>
       <c r="V24">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="W24">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="X24">
         <v>5</v>
@@ -3871,16 +3943,16 @@
         <v>2</v>
       </c>
       <c r="AE24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AF24" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AG24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AH24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AI24">
         <v>15</v>
@@ -3889,45 +3961,45 @@
         <v>0.2</v>
       </c>
       <c r="AK24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AL24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:38">
       <c r="A25">
-        <v>50016</v>
+        <v>50007</v>
       </c>
       <c r="B25" t="s">
         <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D25" t="s">
         <v>116</v>
       </c>
       <c r="E25">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H25">
         <v>2</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3954,114 +4026,221 @@
         <v>88</v>
       </c>
       <c r="T25">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U25">
-        <v>5000</v>
+        <v>1145</v>
       </c>
       <c r="V25">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="W25">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="X25">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Z25">
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB25">
         <v>50</v>
       </c>
       <c r="AC25">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AD25">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AF25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI25">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AJ25">
         <v>0.2</v>
       </c>
       <c r="AK25" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38">
+      <c r="A26">
+        <v>50008</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26">
+        <v>921</v>
+      </c>
+      <c r="F26" t="s">
         <v>199</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="G26">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>2.5</v>
+      </c>
+      <c r="N26">
+        <v>2.5</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R26">
+        <v>100</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T26">
+        <v>55</v>
+      </c>
+      <c r="U26">
+        <v>1240</v>
+      </c>
+      <c r="V26">
+        <v>82</v>
+      </c>
+      <c r="W26">
+        <v>29</v>
+      </c>
+      <c r="X26">
+        <v>5</v>
+      </c>
+      <c r="Y26">
+        <v>50</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>2</v>
+      </c>
+      <c r="AB26">
+        <v>50</v>
+      </c>
+      <c r="AC26">
+        <v>2</v>
+      </c>
+      <c r="AD26">
+        <v>2</v>
+      </c>
+      <c r="AE26" t="s">
         <v>200</v>
       </c>
+      <c r="AF26" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG26">
+        <v>8</v>
+      </c>
+      <c r="AH26">
+        <v>8</v>
+      </c>
+      <c r="AI26">
+        <v>15</v>
+      </c>
+      <c r="AJ26">
+        <v>0.2</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="1:38">
+    <row r="27" customFormat="1" spans="1:38">
       <c r="A27">
-        <v>60001</v>
+        <v>50009</v>
       </c>
       <c r="B27" t="s">
         <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D27" t="s">
         <v>116</v>
       </c>
       <c r="E27">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
         <v>1</v>
       </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -4079,40 +4258,40 @@
         <v>88</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U27">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="V27">
-        <v>1000</v>
+        <v>83</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="AF27" t="s">
         <v>205</v>
@@ -4121,10 +4300,10 @@
         <v>2</v>
       </c>
       <c r="AH27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ27">
         <v>0.2</v>
@@ -4136,9 +4315,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" customFormat="1" spans="1:38">
       <c r="A28">
-        <v>60002</v>
+        <v>50010</v>
       </c>
       <c r="B28" t="s">
         <v>83</v>
@@ -4150,34 +4329,34 @@
         <v>116</v>
       </c>
       <c r="E28">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="F28" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
         <v>1</v>
       </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -4195,105 +4374,105 @@
         <v>88</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U28">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="V28">
-        <v>1000</v>
+        <v>84</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="AF28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG28">
         <v>2</v>
       </c>
       <c r="AH28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI28">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ28">
         <v>0.2</v>
       </c>
       <c r="AK28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AL28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" customFormat="1" spans="1:38">
       <c r="A29">
-        <v>60003</v>
+        <v>50011</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D29" t="s">
         <v>116</v>
       </c>
       <c r="E29">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="F29" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
-      <c r="H29">
-        <v>5</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -4311,105 +4490,105 @@
         <v>88</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="U29">
-        <v>100</v>
+        <v>2300</v>
       </c>
       <c r="V29">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="AF29" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AG29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AH29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI29">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ29">
         <v>0.2</v>
       </c>
       <c r="AK29" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AL29" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" customFormat="1" spans="1:38">
       <c r="A30">
-        <v>60004</v>
+        <v>50012</v>
       </c>
       <c r="B30" t="s">
         <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D30" t="s">
         <v>116</v>
       </c>
       <c r="E30">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="F30" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -4427,105 +4606,105 @@
         <v>88</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="U30">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="V30">
-        <v>1000</v>
+        <v>86</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="AF30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AG30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AH30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI30">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ30">
         <v>0.2</v>
       </c>
       <c r="AK30" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AL30" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" customFormat="1" spans="1:38">
       <c r="A31">
-        <v>60005</v>
+        <v>50016</v>
       </c>
       <c r="B31" t="s">
         <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D31" t="s">
         <v>116</v>
       </c>
       <c r="E31">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="F31" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -4543,212 +4722,212 @@
         <v>88</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="U31">
+        <v>5000</v>
+      </c>
+      <c r="V31">
+        <v>156</v>
+      </c>
+      <c r="W31">
+        <v>45</v>
+      </c>
+      <c r="X31">
+        <v>20</v>
+      </c>
+      <c r="Y31">
         <v>100</v>
       </c>
-      <c r="V31">
-        <v>1000</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AF31" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AG31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ31">
         <v>0.2</v>
       </c>
       <c r="AK31" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:38">
+      <c r="A33">
+        <v>60001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33">
+        <v>915</v>
+      </c>
+      <c r="F33" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R33">
+        <v>100</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>100</v>
+      </c>
+      <c r="V33">
+        <v>1000</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG33">
+        <v>2</v>
+      </c>
+      <c r="AH33">
+        <v>6</v>
+      </c>
+      <c r="AI33">
+        <v>10</v>
+      </c>
+      <c r="AJ33">
+        <v>0.2</v>
+      </c>
+      <c r="AK33" t="s">
         <v>230</v>
       </c>
-      <c r="AL31" t="s">
+      <c r="AL33" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="32" spans="1:38">
-      <c r="A32">
-        <v>60006</v>
-      </c>
-      <c r="B32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" t="s">
-        <v>232</v>
-      </c>
-      <c r="D32" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32">
-        <v>920</v>
-      </c>
-      <c r="F32" t="s">
-        <v>233</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R32">
-        <v>100</v>
-      </c>
-      <c r="S32" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>100</v>
-      </c>
-      <c r="V32">
-        <v>1000</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>235</v>
-      </c>
-      <c r="AG32">
-        <v>2</v>
-      </c>
-      <c r="AH32">
-        <v>6</v>
-      </c>
-      <c r="AI32">
-        <v>10</v>
-      </c>
-      <c r="AJ32">
-        <v>0.2</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>236</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q33" s="6"/>
     </row>
     <row r="34" spans="1:38">
       <c r="A34">
-        <v>80001</v>
+        <v>60002</v>
       </c>
       <c r="B34" t="s">
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D34" t="s">
         <v>116</v>
       </c>
       <c r="E34">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="F34" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4760,13 +4939,13 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -4778,7 +4957,7 @@
         <v>87</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S34" s="7" t="s">
         <v>88</v>
@@ -4787,19 +4966,19 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>520</v>
+        <v>100</v>
       </c>
       <c r="V34">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="W34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4817,10 +4996,10 @@
         <v>0</v>
       </c>
       <c r="AE34" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AF34" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AG34">
         <v>2</v>
@@ -4835,36 +5014,36 @@
         <v>0.2</v>
       </c>
       <c r="AK34" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AL34" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:38">
       <c r="A35">
-        <v>80002</v>
+        <v>60003</v>
       </c>
       <c r="B35" t="s">
         <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D35" t="s">
         <v>116</v>
       </c>
       <c r="E35">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -4876,13 +5055,13 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -4894,7 +5073,7 @@
         <v>87</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>88</v>
@@ -4903,19 +5082,19 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>525</v>
+        <v>100</v>
       </c>
       <c r="V35">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="W35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4933,10 +5112,10 @@
         <v>0</v>
       </c>
       <c r="AE35" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AF35" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AG35">
         <v>2</v>
@@ -4951,36 +5130,36 @@
         <v>0.2</v>
       </c>
       <c r="AK35" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AL35" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:38">
       <c r="A36">
-        <v>80003</v>
+        <v>60004</v>
       </c>
       <c r="B36" t="s">
         <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D36" t="s">
         <v>116</v>
       </c>
       <c r="E36">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F36" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4992,13 +5171,13 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -5010,7 +5189,7 @@
         <v>87</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S36" s="7" t="s">
         <v>88</v>
@@ -5019,19 +5198,19 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>530</v>
+        <v>100</v>
       </c>
       <c r="V36">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="W36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -5049,10 +5228,10 @@
         <v>0</v>
       </c>
       <c r="AE36" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AF36" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AG36">
         <v>2</v>
@@ -5067,36 +5246,36 @@
         <v>0.2</v>
       </c>
       <c r="AK36" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AL36" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:38">
       <c r="A37">
-        <v>80004</v>
+        <v>60005</v>
       </c>
       <c r="B37" t="s">
         <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D37" t="s">
         <v>116</v>
       </c>
       <c r="E37">
-        <v>901</v>
+        <v>919</v>
       </c>
       <c r="F37" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -5108,13 +5287,13 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -5126,7 +5305,7 @@
         <v>87</v>
       </c>
       <c r="R37">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="S37" s="7" t="s">
         <v>88</v>
@@ -5135,19 +5314,19 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>535</v>
+        <v>100</v>
       </c>
       <c r="V37">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="W37">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -5165,10 +5344,10 @@
         <v>0</v>
       </c>
       <c r="AE37" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AF37" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AG37">
         <v>2</v>
@@ -5183,161 +5362,161 @@
         <v>0.2</v>
       </c>
       <c r="AK37" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38">
+      <c r="A38">
+        <v>60006</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38">
+        <v>920</v>
+      </c>
+      <c r="F38" t="s">
+        <v>257</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R38">
+        <v>100</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>100</v>
+      </c>
+      <c r="V38">
+        <v>1000</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG38">
+        <v>2</v>
+      </c>
+      <c r="AH38">
+        <v>6</v>
+      </c>
+      <c r="AI38">
+        <v>10</v>
+      </c>
+      <c r="AJ38">
+        <v>0.2</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL38" t="s">
         <v>261</v>
       </c>
-      <c r="AL37" t="s">
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q38" s="6"/>
-    </row>
-    <row r="39" spans="1:38">
-      <c r="A39">
-        <v>90001</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>264</v>
-      </c>
-      <c r="D39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39">
-        <v>902</v>
-      </c>
-      <c r="F39" t="s">
-        <v>265</v>
-      </c>
-      <c r="G39">
-        <v>99</v>
-      </c>
-      <c r="H39">
-        <v>6</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>6</v>
-      </c>
-      <c r="N39">
-        <v>5</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R39">
-        <v>1</v>
-      </c>
-      <c r="S39" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>10000</v>
-      </c>
-      <c r="V39">
-        <v>56</v>
-      </c>
-      <c r="W39">
-        <v>23</v>
-      </c>
-      <c r="X39">
-        <v>5</v>
-      </c>
-      <c r="Y39">
-        <v>50</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>267</v>
-      </c>
-      <c r="AG39">
-        <v>2</v>
-      </c>
-      <c r="AH39">
-        <v>6</v>
-      </c>
-      <c r="AI39">
-        <v>10</v>
-      </c>
-      <c r="AJ39">
-        <v>0.2</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>268</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>269</v>
-      </c>
+      <c r="Q39" s="6"/>
     </row>
     <row r="40" spans="1:38">
       <c r="A40">
-        <v>90002</v>
+        <v>80001</v>
       </c>
       <c r="B40" t="s">
         <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D40" t="s">
         <v>116</v>
       </c>
       <c r="E40">
-        <v>903</v>
+        <v>921</v>
       </c>
       <c r="F40" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G40">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -5349,10 +5528,10 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N40">
         <v>5</v>
@@ -5376,13 +5555,13 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>10000</v>
+        <v>520</v>
       </c>
       <c r="V40">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="W40">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="X40">
         <v>5</v>
@@ -5406,10 +5585,10 @@
         <v>0</v>
       </c>
       <c r="AE40" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="AF40" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AG40">
         <v>2</v>
@@ -5424,36 +5603,36 @@
         <v>0.2</v>
       </c>
       <c r="AK40" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AL40" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:38">
       <c r="A41">
-        <v>90003</v>
+        <v>80002</v>
       </c>
       <c r="B41" t="s">
         <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D41" t="s">
         <v>116</v>
       </c>
       <c r="E41">
-        <v>907</v>
+        <v>922</v>
       </c>
       <c r="F41" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G41">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -5465,10 +5644,10 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N41">
         <v>5</v>
@@ -5492,13 +5671,13 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>10000</v>
+        <v>525</v>
       </c>
       <c r="V41">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="W41">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="X41">
         <v>5</v>
@@ -5522,10 +5701,10 @@
         <v>0</v>
       </c>
       <c r="AE41" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AF41" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AG41">
         <v>2</v>
@@ -5540,21 +5719,21 @@
         <v>0.2</v>
       </c>
       <c r="AK41" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AL41" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:38">
       <c r="A42">
-        <v>90004</v>
+        <v>80003</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D42" t="s">
         <v>116</v>
@@ -5563,13 +5742,13 @@
         <v>923</v>
       </c>
       <c r="F42" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G42">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -5581,10 +5760,10 @@
         <v>0</v>
       </c>
       <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
         <v>4</v>
-      </c>
-      <c r="M42">
-        <v>6</v>
       </c>
       <c r="N42">
         <v>5</v>
@@ -5608,13 +5787,13 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>10000</v>
+        <v>530</v>
       </c>
       <c r="V42">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="W42">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="X42">
         <v>5</v>
@@ -5638,10 +5817,10 @@
         <v>0</v>
       </c>
       <c r="AE42" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AF42" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AG42">
         <v>2</v>
@@ -5656,36 +5835,36 @@
         <v>0.2</v>
       </c>
       <c r="AK42" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AL42" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:38">
       <c r="A43">
-        <v>90005</v>
+        <v>80004</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D43" t="s">
         <v>116</v>
       </c>
       <c r="E43">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="F43" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G43">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -5697,10 +5876,10 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N43">
         <v>5</v>
@@ -5724,13 +5903,13 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>10000</v>
+        <v>535</v>
       </c>
       <c r="V43">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="W43">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="X43">
         <v>5</v>
@@ -5754,10 +5933,10 @@
         <v>0</v>
       </c>
       <c r="AE43" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AF43" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="AG43">
         <v>2</v>
@@ -5772,10 +5951,10 @@
         <v>0.2</v>
       </c>
       <c r="AK43" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AL43" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5783,19 +5962,19 @@
         <v>81</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Q44" s="6"/>
     </row>
     <row r="45" spans="1:38">
       <c r="A45">
-        <v>100001</v>
+        <v>90001</v>
       </c>
       <c r="B45" t="s">
         <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D45" t="s">
         <v>116</v>
@@ -5804,31 +5983,31 @@
         <v>902</v>
       </c>
       <c r="F45" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G45">
+        <v>99</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
         <v>1</v>
       </c>
-      <c r="H45">
-        <v>4</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>5</v>
-      </c>
       <c r="M45">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N45">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -5849,19 +6028,19 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="V45">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -5879,10 +6058,10 @@
         <v>0</v>
       </c>
       <c r="AE45" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AF45" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AG45">
         <v>2</v>
@@ -5897,21 +6076,21 @@
         <v>0.2</v>
       </c>
       <c r="AK45" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AL45" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:38">
       <c r="A46">
-        <v>100002</v>
+        <v>90002</v>
       </c>
       <c r="B46" t="s">
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D46" t="s">
         <v>116</v>
@@ -5920,13 +6099,13 @@
         <v>903</v>
       </c>
       <c r="F46" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -5938,13 +6117,13 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N46">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -5956,7 +6135,7 @@
         <v>87</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S46" s="7" t="s">
         <v>88</v>
@@ -5965,19 +6144,19 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="V46">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5995,10 +6174,10 @@
         <v>0</v>
       </c>
       <c r="AE46" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="AF46" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AG46">
         <v>2</v>
@@ -6013,10 +6192,599 @@
         <v>0.2</v>
       </c>
       <c r="AK46" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38">
+      <c r="A47">
+        <v>90003</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
+        <v>300</v>
+      </c>
+      <c r="D47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47">
+        <v>907</v>
+      </c>
+      <c r="F47" t="s">
+        <v>301</v>
+      </c>
+      <c r="G47">
+        <v>99</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>6</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>100000</v>
+      </c>
+      <c r="V47">
+        <v>60</v>
+      </c>
+      <c r="W47">
+        <v>25</v>
+      </c>
+      <c r="X47">
+        <v>5</v>
+      </c>
+      <c r="Y47">
+        <v>50</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG47">
+        <v>2</v>
+      </c>
+      <c r="AH47">
+        <v>6</v>
+      </c>
+      <c r="AI47">
+        <v>10</v>
+      </c>
+      <c r="AJ47">
+        <v>0.2</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL47" t="s">
         <v>305</v>
       </c>
-      <c r="AL46" t="s">
+    </row>
+    <row r="48" spans="1:38">
+      <c r="A48">
+        <v>90004</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
         <v>306</v>
+      </c>
+      <c r="D48" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48">
+        <v>923</v>
+      </c>
+      <c r="F48" t="s">
+        <v>307</v>
+      </c>
+      <c r="G48">
+        <v>99</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <v>6</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>100000</v>
+      </c>
+      <c r="V48">
+        <v>62</v>
+      </c>
+      <c r="W48">
+        <v>26</v>
+      </c>
+      <c r="X48">
+        <v>5</v>
+      </c>
+      <c r="Y48">
+        <v>50</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG48">
+        <v>2</v>
+      </c>
+      <c r="AH48">
+        <v>6</v>
+      </c>
+      <c r="AI48">
+        <v>10</v>
+      </c>
+      <c r="AJ48">
+        <v>0.2</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38">
+      <c r="A49">
+        <v>90005</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" t="s">
+        <v>312</v>
+      </c>
+      <c r="D49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49">
+        <v>906</v>
+      </c>
+      <c r="F49" t="s">
+        <v>313</v>
+      </c>
+      <c r="G49">
+        <v>99</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>5</v>
+      </c>
+      <c r="M49">
+        <v>6</v>
+      </c>
+      <c r="N49">
+        <v>5</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>100000</v>
+      </c>
+      <c r="V49">
+        <v>64</v>
+      </c>
+      <c r="W49">
+        <v>27</v>
+      </c>
+      <c r="X49">
+        <v>5</v>
+      </c>
+      <c r="Y49">
+        <v>50</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG49">
+        <v>2</v>
+      </c>
+      <c r="AH49">
+        <v>6</v>
+      </c>
+      <c r="AI49">
+        <v>10</v>
+      </c>
+      <c r="AJ49">
+        <v>0.2</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>316</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q50" s="6"/>
+    </row>
+    <row r="51" spans="1:38">
+      <c r="A51">
+        <v>100001</v>
+      </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
+        <v>319</v>
+      </c>
+      <c r="D51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51">
+        <v>902</v>
+      </c>
+      <c r="F51" t="s">
+        <v>320</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>5</v>
+      </c>
+      <c r="M51">
+        <v>10</v>
+      </c>
+      <c r="N51">
+        <v>12</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>1000</v>
+      </c>
+      <c r="V51">
+        <v>100</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG51">
+        <v>2</v>
+      </c>
+      <c r="AH51">
+        <v>6</v>
+      </c>
+      <c r="AI51">
+        <v>10</v>
+      </c>
+      <c r="AJ51">
+        <v>0.2</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>323</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38">
+      <c r="A52">
+        <v>100002</v>
+      </c>
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" t="s">
+        <v>325</v>
+      </c>
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52">
+        <v>903</v>
+      </c>
+      <c r="F52" t="s">
+        <v>326</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>5</v>
+      </c>
+      <c r="M52">
+        <v>10</v>
+      </c>
+      <c r="N52">
+        <v>12</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>1000</v>
+      </c>
+      <c r="V52">
+        <v>100</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG52">
+        <v>2</v>
+      </c>
+      <c r="AH52">
+        <v>6</v>
+      </c>
+      <c r="AI52">
+        <v>10</v>
+      </c>
+      <c r="AJ52">
+        <v>0.2</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
